--- a/metadata-ELTEC-gsw.xlsx
+++ b/metadata-ELTEC-gsw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/ELTeC-gsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C01BE-0C01-054C-AF41-BB3ACA31E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C6542-A640-2C41-BE83-CA76A85DF712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{75C0215C-EFA7-5044-9261-F41722653DFC}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$110</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="315">
   <si>
     <t>Author</t>
   </si>
@@ -975,6 +975,15 @@
   </si>
   <si>
     <t>GSW0135_zehender_leuenhof_1860.xml</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>second volume - same xml file: together word count = 121571, long</t>
+  </si>
+  <si>
+    <t>second volume - same xml file: together word count = 234406, long</t>
   </si>
 </sst>
 </file>
@@ -1084,20 +1093,9 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color indexed="2"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1237,6 +1235,11 @@
           <bgColor rgb="FFFFE6B3"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1553,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}">
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1581,7 @@
     <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,8 +1624,11 @@
       <c r="N1" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2808,8 +2814,11 @@
       <c r="N29" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -2897,7 +2906,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>1920</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G34&lt;1949,"ja", IF(G34="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I34" s="2" t="str">
@@ -5021,7 +5030,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>144</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>144</v>
       </c>
@@ -5103,7 +5112,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
@@ -5144,7 +5153,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>148</v>
       </c>
@@ -5188,7 +5197,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>148</v>
       </c>
@@ -5232,7 +5241,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>148</v>
       </c>
@@ -5272,8 +5281,11 @@
       <c r="N86" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>148</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>153</v>
       </c>
@@ -5358,7 +5370,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>153</v>
       </c>
@@ -5402,7 +5414,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
@@ -5443,7 +5455,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>156</v>
       </c>
@@ -5487,7 +5499,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>156</v>
       </c>
@@ -5528,7 +5540,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>156</v>
       </c>
@@ -5569,7 +5581,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>161</v>
       </c>
@@ -5613,7 +5625,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>161</v>
       </c>
@@ -5657,7 +5669,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>161</v>
       </c>
@@ -6550,111 +6562,117 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N110" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}"/>
-  <conditionalFormatting sqref="A107:G110 A103:G103 A102:F102 A105:G105 A104:E104 A106:E106 M71:N71 M59:N59 M62:N63 M52:N54 M48:N49 M30:N30 M38:N45 M20:N27 L60:N61 L46:N47 L3:N19 L107:N107 L55:N58 L50:N51 L28:N29 L64:N70 L72:N98 A1:N2 A111:N1048576 L103:N103 H3:K110 A3:G101 L31:N37 L2:L110">
-    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="please add">
+  <conditionalFormatting sqref="A107:G110 A103:G103 A102:F102 A105:G105 A104:E104 A106:E106 M71:N71 M59:N59 M62:N63 M52:N54 M48:N49 M30:N30 M38:N45 M20:N27 L60:N61 L46:N47 L3:N19 L107:N107 L55:N58 L50:N51 L28:N29 L64:N70 L72:N98 A1:N2 A111:N1048576 L103:N103 H3:K110 A3:G101 L31:N37 L2:L110 O29">
+    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L187">
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H110">
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="nein">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="nein">
       <formula>NOT(ISERROR(SEARCH("nein",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I280">
-    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="beyond">
+    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="beyond">
       <formula>NOT(ISERROR(SEARCH("beyond",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L187">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C187">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="greaterThan">
       <formula>1920</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104 F106:G106 N102 N108:N110 L99:N101 L104:N106">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="13" priority="26" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",G102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:M110 M102">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",M102)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O86">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="please add">
+      <formula>NOT(ISERROR(SEARCH("please add",O86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/metadata-ELTEC-gsw.xlsx
+++ b/metadata-ELTEC-gsw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/ELTeC-gsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C6542-A640-2C41-BE83-CA76A85DF712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B202DEA7-3B33-5A4D-8B15-E41489862B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{75C0215C-EFA7-5044-9261-F41722653DFC}"/>
+    <workbookView xWindow="380" yWindow="1060" windowWidth="21360" windowHeight="15260" xr2:uid="{75C0215C-EFA7-5044-9261-F41722653DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1091,12 +1091,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color indexed="2"/>
@@ -1558,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="F44" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,18 +1684,18 @@
         <v>1942</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H65" si="0">IF(G3&lt;1949,"ja", IF(G3="please add","","nein"))</f>
+        <f>IF(G3&lt;1949,"ja", IF(G3="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I65" si="1">IF(C3&lt;=1859,"T1",IF(C3&lt;=1879,"T2",IF(C3&lt;=1899,"T3",IF(C3&lt;=1920,"T4","beyond"))))</f>
+        <f>IF(C3&lt;=1859,"T1",IF(C3&lt;=1879,"T2",IF(C3&lt;=1899,"T3",IF(C3&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J3" s="5">
         <v>30370</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K65" si="2">IF(J3="","",IF(J3="please add","",IF(J3&lt;=10000,"too short",IF(J3&lt;=50000,"short",IF(J3&lt;=100000,"medium",IF(J3&gt;100000,"long"))))))</f>
+        <f>IF(J3="","",IF(J3="please add","",IF(J3&lt;=10000,"too short",IF(J3&lt;=50000,"short",IF(J3&lt;=100000,"medium",IF(J3&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1730,18 +1725,18 @@
         <v>1927</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G4&lt;1949,"ja", IF(G4="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C4&lt;=1859,"T1",IF(C4&lt;=1879,"T2",IF(C4&lt;=1899,"T3",IF(C4&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J4" s="5">
         <v>82874</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J4="","",IF(J4="please add","",IF(J4&lt;=10000,"too short",IF(J4&lt;=50000,"short",IF(J4&lt;=100000,"medium",IF(J4&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1759,43 +1754,43 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3">
-        <v>1905</v>
+        <v>1914</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2">
         <v>1916</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G5&lt;1949,"ja", IF(G5="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C5&lt;=1859,"T1",IF(C5&lt;=1879,"T2",IF(C5&lt;=1899,"T3",IF(C5&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J5" s="2">
-        <v>21982</v>
+        <v>28754</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J5="","",IF(J5="please add","",IF(J5&lt;=10000,"too short",IF(J5&lt;=50000,"short",IF(J5&lt;=100000,"medium",IF(J5&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1803,43 +1798,43 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>1914</v>
+        <v>1905</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>1916</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G6&lt;1949,"ja", IF(G6="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C6&lt;=1859,"T1",IF(C6&lt;=1879,"T2",IF(C6&lt;=1899,"T3",IF(C6&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J6" s="2">
-        <v>28754</v>
+        <v>21982</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J6="","",IF(J6="please add","",IF(J6&lt;=10000,"too short",IF(J6&lt;=50000,"short",IF(J6&lt;=100000,"medium",IF(J6&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1859,18 +1854,18 @@
         <v>1916</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G7&lt;1949,"ja", IF(G7="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C7&lt;=1859,"T1",IF(C7&lt;=1879,"T2",IF(C7&lt;=1899,"T3",IF(C7&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J7" s="5">
         <v>44524</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J7="","",IF(J7="please add","",IF(J7&lt;=10000,"too short",IF(J7&lt;=50000,"short",IF(J7&lt;=100000,"medium",IF(J7&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -1903,18 +1898,18 @@
         <v>1937</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G8&lt;1949,"ja", IF(G8="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C8&lt;=1859,"T1",IF(C8&lt;=1879,"T2",IF(C8&lt;=1899,"T3",IF(C8&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J8" s="2">
         <v>79181</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J8="","",IF(J8="please add","",IF(J8&lt;=10000,"too short",IF(J8&lt;=50000,"short",IF(J8&lt;=100000,"medium",IF(J8&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -1932,10 +1927,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
-        <v>1906</v>
+        <v>1915</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -1944,18 +1939,18 @@
         <v>1937</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G9&lt;1949,"ja", IF(G9="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C9&lt;=1859,"T1",IF(C9&lt;=1879,"T2",IF(C9&lt;=1899,"T3",IF(C9&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J9" s="2">
-        <v>96480</v>
+        <v>63642</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J9="","",IF(J9="please add","",IF(J9&lt;=10000,"too short",IF(J9&lt;=50000,"short",IF(J9&lt;=100000,"medium",IF(J9&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1965,7 +1960,7 @@
         <v>193</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1973,10 +1968,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
-        <v>1915</v>
+        <v>1906</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -1985,18 +1980,18 @@
         <v>1937</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G10&lt;1949,"ja", IF(G10="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C10&lt;=1859,"T1",IF(C10&lt;=1879,"T2",IF(C10&lt;=1899,"T3",IF(C10&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J10" s="2">
-        <v>63642</v>
+        <v>96480</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J10="","",IF(J10="please add","",IF(J10&lt;=10000,"too short",IF(J10&lt;=50000,"short",IF(J10&lt;=100000,"medium",IF(J10&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -2006,7 +2001,7 @@
         <v>193</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2029,18 +2024,18 @@
         <v>1919</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G11&lt;1949,"ja", IF(G11="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C11&lt;=1859,"T1",IF(C11&lt;=1879,"T2",IF(C11&lt;=1899,"T3",IF(C11&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J11" s="2">
         <v>60471</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J11="","",IF(J11="please add","",IF(J11&lt;=10000,"too short",IF(J11&lt;=50000,"short",IF(J11&lt;=100000,"medium",IF(J11&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -2073,18 +2068,18 @@
         <v>1927</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G12&lt;1949,"ja", IF(G12="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C12&lt;=1859,"T1",IF(C12&lt;=1879,"T2",IF(C12&lt;=1899,"T3",IF(C12&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J12" s="2">
         <v>36750</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J12="","",IF(J12="please add","",IF(J12&lt;=10000,"too short",IF(J12&lt;=50000,"short",IF(J12&lt;=100000,"medium",IF(J12&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -2102,10 +2097,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3">
-        <v>1907</v>
+        <v>1916</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -2114,18 +2109,18 @@
         <v>1947</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G13&lt;1949,"ja", IF(G13="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C13&lt;=1859,"T1",IF(C13&lt;=1879,"T2",IF(C13&lt;=1899,"T3",IF(C13&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J13" s="2">
-        <v>19561</v>
+        <v>35213</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J13="","",IF(J13="please add","",IF(J13&lt;=10000,"too short",IF(J13&lt;=50000,"short",IF(J13&lt;=100000,"medium",IF(J13&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -2135,7 +2130,7 @@
         <v>193</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2143,10 +2138,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -2155,18 +2150,18 @@
         <v>1947</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G14&lt;1949,"ja", IF(G14="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C14&lt;=1859,"T1",IF(C14&lt;=1879,"T2",IF(C14&lt;=1899,"T3",IF(C14&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J14" s="2">
-        <v>35213</v>
+        <v>19561</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J14="","",IF(J14="please add","",IF(J14&lt;=10000,"too short",IF(J14&lt;=50000,"short",IF(J14&lt;=100000,"medium",IF(J14&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -2176,7 +2171,7 @@
         <v>193</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2196,18 +2191,18 @@
         <v>1947</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G15&lt;1949,"ja", IF(G15="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C15&lt;=1859,"T1",IF(C15&lt;=1879,"T2",IF(C15&lt;=1899,"T3",IF(C15&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J15" s="2">
         <v>38635</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J15="","",IF(J15="please add","",IF(J15&lt;=10000,"too short",IF(J15&lt;=50000,"short",IF(J15&lt;=100000,"medium",IF(J15&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -2225,43 +2220,40 @@
         <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1921</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1900</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G16" s="2">
         <v>1924</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G16&lt;1949,"ja", IF(G16="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>beyond</v>
+        <f>IF(C16&lt;=1859,"T1",IF(C16&lt;=1879,"T2",IF(C16&lt;=1899,"T3",IF(C16&lt;=1920,"T4","beyond"))))</f>
+        <v>T4</v>
       </c>
       <c r="J16" s="2">
-        <v>110315</v>
+        <v>42646</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>long</v>
+        <f>IF(J16="","",IF(J16="please add","",IF(J16&lt;=10000,"too short",IF(J16&lt;=50000,"short",IF(J16&lt;=100000,"medium",IF(J16&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2284,18 +2276,18 @@
         <v>1924</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G17&lt;1949,"ja", IF(G17="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C17&lt;=1859,"T1",IF(C17&lt;=1879,"T2",IF(C17&lt;=1899,"T3",IF(C17&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J17" s="2">
         <v>48583</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J17="","",IF(J17="please add","",IF(J17&lt;=10000,"too short",IF(J17&lt;=50000,"short",IF(J17&lt;=100000,"medium",IF(J17&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -2313,43 +2305,43 @@
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1913</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1921</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2">
         <v>1924</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G18&lt;1949,"ja", IF(G18="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>T4</v>
+        <f>IF(C18&lt;=1859,"T1",IF(C18&lt;=1879,"T2",IF(C18&lt;=1899,"T3",IF(C18&lt;=1920,"T4","beyond"))))</f>
+        <v>beyond</v>
       </c>
       <c r="J18" s="2">
-        <v>67712</v>
+        <v>110315</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medium</v>
+        <f>IF(J18="","",IF(J18="please add","",IF(J18&lt;=10000,"too short",IF(J18&lt;=50000,"short",IF(J18&lt;=100000,"medium",IF(J18&gt;100000,"long"))))))</f>
+        <v>long</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2357,31 +2349,34 @@
         <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G19" s="2">
         <v>1924</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G19&lt;1949,"ja", IF(G19="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C19&lt;=1859,"T1",IF(C19&lt;=1879,"T2",IF(C19&lt;=1899,"T3",IF(C19&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J19" s="2">
-        <v>36993</v>
+        <v>67712</v>
       </c>
       <c r="K19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>short</v>
+        <f>IF(J19="","",IF(J19="please add","",IF(J19&lt;=10000,"too short",IF(J19&lt;=50000,"short",IF(J19&lt;=100000,"medium",IF(J19&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>16</v>
@@ -2390,7 +2385,7 @@
         <v>193</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2410,18 +2405,18 @@
         <v>1924</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G20&lt;1949,"ja", IF(G20="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C20&lt;=1859,"T1",IF(C20&lt;=1879,"T2",IF(C20&lt;=1899,"T3",IF(C20&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J20" s="2">
         <v>102886</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J20="","",IF(J20="please add","",IF(J20&lt;=10000,"too short",IF(J20&lt;=50000,"short",IF(J20&lt;=100000,"medium",IF(J20&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -2439,10 +2434,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3">
-        <v>1900</v>
+        <v>1919</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -2451,18 +2446,18 @@
         <v>1924</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G21&lt;1949,"ja", IF(G21="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C21&lt;=1859,"T1",IF(C21&lt;=1879,"T2",IF(C21&lt;=1899,"T3",IF(C21&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J21" s="2">
-        <v>42646</v>
+        <v>36993</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J21="","",IF(J21="please add","",IF(J21&lt;=10000,"too short",IF(J21&lt;=50000,"short",IF(J21&lt;=100000,"medium",IF(J21&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -2472,7 +2467,7 @@
         <v>193</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2492,18 +2487,18 @@
         <v>1877</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G22&lt;1949,"ja", IF(G22="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C22&lt;=1859,"T1",IF(C22&lt;=1879,"T2",IF(C22&lt;=1899,"T3",IF(C22&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J22" s="2">
         <v>37789</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J22="","",IF(J22="please add","",IF(J22&lt;=10000,"too short",IF(J22&lt;=50000,"short",IF(J22&lt;=100000,"medium",IF(J22&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -2533,18 +2528,18 @@
         <v>1875</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G23&lt;1949,"ja", IF(G23="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C23&lt;=1859,"T1",IF(C23&lt;=1879,"T2",IF(C23&lt;=1899,"T3",IF(C23&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J23" s="2">
         <v>22626</v>
       </c>
       <c r="K23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J23="","",IF(J23="please add","",IF(J23&lt;=10000,"too short",IF(J23&lt;=50000,"short",IF(J23&lt;=100000,"medium",IF(J23&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -2574,18 +2569,18 @@
         <v>1935</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G24&lt;1949,"ja", IF(G24="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C24&lt;=1859,"T1",IF(C24&lt;=1879,"T2",IF(C24&lt;=1899,"T3",IF(C24&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J24" s="2">
         <v>37551</v>
       </c>
       <c r="K24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J24="","",IF(J24="please add","",IF(J24&lt;=10000,"too short",IF(J24&lt;=50000,"short",IF(J24&lt;=100000,"medium",IF(J24&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -2618,18 +2613,18 @@
         <v>1939</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G25&lt;1949,"ja", IF(G25="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C25&lt;=1859,"T1",IF(C25&lt;=1879,"T2",IF(C25&lt;=1899,"T3",IF(C25&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J25" s="2">
         <v>53768</v>
       </c>
       <c r="K25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J25="","",IF(J25="please add","",IF(J25&lt;=10000,"too short",IF(J25&lt;=50000,"short",IF(J25&lt;=100000,"medium",IF(J25&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -2662,18 +2657,18 @@
         <v>1939</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G26&lt;1949,"ja", IF(G26="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C26&lt;=1859,"T1",IF(C26&lt;=1879,"T2",IF(C26&lt;=1899,"T3",IF(C26&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J26" s="2">
         <v>61824</v>
       </c>
       <c r="K26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J26="","",IF(J26="please add","",IF(J26&lt;=10000,"too short",IF(J26&lt;=50000,"short",IF(J26&lt;=100000,"medium",IF(J26&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -2703,18 +2698,18 @@
         <v>1890</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G27&lt;1949,"ja", IF(G27="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C27&lt;=1859,"T1",IF(C27&lt;=1879,"T2",IF(C27&lt;=1899,"T3",IF(C27&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J27" s="2">
         <v>22469</v>
       </c>
       <c r="K27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J27="","",IF(J27="please add","",IF(J27&lt;=10000,"too short",IF(J27&lt;=50000,"short",IF(J27&lt;=100000,"medium",IF(J27&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -2725,6 +2720,9 @@
       </c>
       <c r="N27" s="2" t="s">
         <v>223</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2747,18 +2745,18 @@
         <v>1942</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G28&lt;1949,"ja", IF(G28="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C28&lt;=1859,"T1",IF(C28&lt;=1879,"T2",IF(C28&lt;=1899,"T3",IF(C28&lt;=1920,"T4","beyond"))))</f>
         <v>beyond</v>
       </c>
       <c r="J28" s="5">
         <v>111722</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J28="","",IF(J28="please add","",IF(J28&lt;=10000,"too short",IF(J28&lt;=50000,"short",IF(J28&lt;=100000,"medium",IF(J28&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -2791,18 +2789,18 @@
         <v>1942</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G29&lt;1949,"ja", IF(G29="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C29&lt;=1859,"T1",IF(C29&lt;=1879,"T2",IF(C29&lt;=1899,"T3",IF(C29&lt;=1920,"T4","beyond"))))</f>
         <v>beyond</v>
       </c>
       <c r="J29" s="5">
         <v>122684</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J29="","",IF(J29="please add","",IF(J29&lt;=10000,"too short",IF(J29&lt;=50000,"short",IF(J29&lt;=100000,"medium",IF(J29&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -2813,9 +2811,6 @@
       </c>
       <c r="N29" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2838,18 +2833,18 @@
         <v>1928</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G30&lt;1949,"ja", IF(G30="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C30&lt;=1859,"T1",IF(C30&lt;=1879,"T2",IF(C30&lt;=1899,"T3",IF(C30&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J30" s="2">
         <v>132322</v>
       </c>
       <c r="K30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J30="","",IF(J30="please add","",IF(J30&lt;=10000,"too short",IF(J30&lt;=50000,"short",IF(J30&lt;=100000,"medium",IF(J30&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -2867,7 +2862,7 @@
         <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3">
         <v>1911</v>
@@ -2876,34 +2871,34 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2">
         <v>1928</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G31&lt;1949,"ja", IF(G31="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C31&lt;=1859,"T1",IF(C31&lt;=1879,"T2",IF(C31&lt;=1899,"T3",IF(C31&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J31" s="5">
-        <v>80314</v>
+        <v>150157</v>
       </c>
       <c r="K31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medium</v>
+        <f>IF(J31="","",IF(J31="please add","",IF(J31&lt;=10000,"too short",IF(J31&lt;=50000,"short",IF(J31&lt;=100000,"medium",IF(J31&gt;100000,"long"))))))</f>
+        <v>long</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2911,33 +2906,33 @@
         <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1912</v>
+        <v>67</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1911</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G32" s="2">
         <v>1928</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G32&lt;1949,"ja", IF(G32="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C32&lt;=1859,"T1",IF(C32&lt;=1879,"T2",IF(C32&lt;=1899,"T3",IF(C32&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J32" s="5">
-        <v>79740</v>
+        <v>80314</v>
       </c>
       <c r="K32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J32="","",IF(J32="please add","",IF(J32&lt;=10000,"too short",IF(J32&lt;=50000,"short",IF(J32&lt;=100000,"medium",IF(J32&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -2947,7 +2942,7 @@
         <v>195</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2955,10 +2950,10 @@
         <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1911</v>
+        <v>68</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1912</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -2970,28 +2965,28 @@
         <v>1928</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G33&lt;1949,"ja", IF(G33="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C33&lt;=1859,"T1",IF(C33&lt;=1879,"T2",IF(C33&lt;=1899,"T3",IF(C33&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J33" s="5">
-        <v>150157</v>
+        <v>79740</v>
       </c>
       <c r="K33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>long</v>
+        <f>IF(J33="","",IF(J33="please add","",IF(J33&lt;=10000,"too short",IF(J33&lt;=50000,"short",IF(J33&lt;=100000,"medium",IF(J33&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -3018,14 +3013,14 @@
         <v>ja</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C34&lt;=1859,"T1",IF(C34&lt;=1879,"T2",IF(C34&lt;=1899,"T3",IF(C34&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J34" s="2">
         <v>99777</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J34="","",IF(J34="please add","",IF(J34&lt;=10000,"too short",IF(J34&lt;=50000,"short",IF(J34&lt;=100000,"medium",IF(J34&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -3058,18 +3053,18 @@
         <v>1865</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G35&lt;1949,"ja", IF(G35="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C35&lt;=1859,"T1",IF(C35&lt;=1879,"T2",IF(C35&lt;=1899,"T3",IF(C35&lt;=1920,"T4","beyond"))))</f>
         <v>T1</v>
       </c>
       <c r="J35" s="2">
         <v>25213</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J35="","",IF(J35="please add","",IF(J35&lt;=10000,"too short",IF(J35&lt;=50000,"short",IF(J35&lt;=100000,"medium",IF(J35&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -3099,18 +3094,18 @@
         <v>1968</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G36&lt;1949,"ja", IF(G36="please add","","nein"))</f>
         <v>nein</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C36&lt;=1859,"T1",IF(C36&lt;=1879,"T2",IF(C36&lt;=1899,"T3",IF(C36&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J36" s="2">
         <v>37268</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J36="","",IF(J36="please add","",IF(J36&lt;=10000,"too short",IF(J36&lt;=50000,"short",IF(J36&lt;=100000,"medium",IF(J36&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -3140,18 +3135,18 @@
         <v>1968</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G37&lt;1949,"ja", IF(G37="please add","","nein"))</f>
         <v>nein</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C37&lt;=1859,"T1",IF(C37&lt;=1879,"T2",IF(C37&lt;=1899,"T3",IF(C37&lt;=1920,"T4","beyond"))))</f>
         <v>beyond</v>
       </c>
       <c r="J37" s="2">
         <v>25126</v>
       </c>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J37="","",IF(J37="please add","",IF(J37&lt;=10000,"too short",IF(J37&lt;=50000,"short",IF(J37&lt;=100000,"medium",IF(J37&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -3181,18 +3176,18 @@
         <v>1943</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G38&lt;1949,"ja", IF(G38="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C38&lt;=1859,"T1",IF(C38&lt;=1879,"T2",IF(C38&lt;=1899,"T3",IF(C38&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J38" s="2">
         <v>67741</v>
       </c>
       <c r="K38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J38="","",IF(J38="please add","",IF(J38&lt;=10000,"too short",IF(J38&lt;=50000,"short",IF(J38&lt;=100000,"medium",IF(J38&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -3210,10 +3205,10 @@
         <v>235</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -3225,28 +3220,28 @@
         <v>1854</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G39&lt;1949,"ja", IF(G39="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C39&lt;=1859,"T1",IF(C39&lt;=1879,"T2",IF(C39&lt;=1899,"T3",IF(C39&lt;=1920,"T4","beyond"))))</f>
         <v>T1</v>
       </c>
       <c r="J39" s="2">
-        <v>165536</v>
+        <v>118666</v>
       </c>
       <c r="K39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J39="","",IF(J39="please add","",IF(J39&lt;=10000,"too short",IF(J39&lt;=50000,"short",IF(J39&lt;=100000,"medium",IF(J39&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3254,10 +3249,10 @@
         <v>235</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="3">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -3269,66 +3264,64 @@
         <v>1854</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G40&lt;1949,"ja", IF(G40="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C40&lt;=1859,"T1",IF(C40&lt;=1879,"T2",IF(C40&lt;=1899,"T3",IF(C40&lt;=1920,"T4","beyond"))))</f>
         <v>T1</v>
       </c>
       <c r="J40" s="2">
-        <v>118666</v>
+        <v>165536</v>
       </c>
       <c r="K40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J40="","",IF(J40="please add","",IF(J40&lt;=10000,"too short",IF(J40&lt;=50000,"short",IF(J40&lt;=100000,"medium",IF(J40&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1843</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1844</v>
-      </c>
+      <c r="B41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1842</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="F41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="7">
         <v>1854</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G41&lt;1949,"ja", IF(G41="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C41&lt;=1859,"T1",IF(C41&lt;=1879,"T2",IF(C41&lt;=1899,"T3",IF(C41&lt;=1920,"T4","beyond"))))</f>
         <v>T1</v>
       </c>
-      <c r="J41" s="2">
-        <v>153761</v>
+      <c r="J41" s="7">
+        <v>38746</v>
       </c>
       <c r="K41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>long</v>
+        <f>IF(J41="","",IF(J41="please add","",IF(J41&lt;=10000,"too short",IF(J41&lt;=50000,"short",IF(J41&lt;=100000,"medium",IF(J41&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>16</v>
@@ -3336,8 +3329,8 @@
       <c r="M41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>238</v>
+      <c r="N41" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -3345,33 +3338,36 @@
         <v>235</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3">
-        <v>1849</v>
+        <v>1843</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1844</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2">
         <v>1854</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G42&lt;1949,"ja", IF(G42="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C42&lt;=1859,"T1",IF(C42&lt;=1879,"T2",IF(C42&lt;=1899,"T3",IF(C42&lt;=1920,"T4","beyond"))))</f>
         <v>T1</v>
       </c>
       <c r="J42" s="2">
-        <v>149629</v>
+        <v>153761</v>
       </c>
       <c r="K42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J42="","",IF(J42="please add","",IF(J42&lt;=10000,"too short",IF(J42&lt;=50000,"short",IF(J42&lt;=100000,"medium",IF(J42&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -3381,7 +3377,7 @@
         <v>193</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3389,36 +3385,33 @@
         <v>235</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3">
-        <v>1843</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G43" s="2">
         <v>1854</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G43&lt;1949,"ja", IF(G43="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C43&lt;=1859,"T1",IF(C43&lt;=1879,"T2",IF(C43&lt;=1899,"T3",IF(C43&lt;=1920,"T4","beyond"))))</f>
         <v>T1</v>
       </c>
       <c r="J43" s="2">
-        <v>299313</v>
+        <v>149629</v>
       </c>
       <c r="K43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J43="","",IF(J43="please add","",IF(J43&lt;=10000,"too short",IF(J43&lt;=50000,"short",IF(J43&lt;=100000,"medium",IF(J43&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -3428,43 +3421,45 @@
         <v>193</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1842</v>
-      </c>
-      <c r="D44" s="7"/>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1843</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1844</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="F44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="2">
         <v>1854</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G44&lt;1949,"ja", IF(G44="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C44&lt;=1859,"T1",IF(C44&lt;=1879,"T2",IF(C44&lt;=1899,"T3",IF(C44&lt;=1920,"T4","beyond"))))</f>
         <v>T1</v>
       </c>
-      <c r="J44" s="7">
-        <v>38746</v>
+      <c r="J44" s="2">
+        <v>299313</v>
       </c>
       <c r="K44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>short</v>
+        <f>IF(J44="","",IF(J44="please add","",IF(J44&lt;=10000,"too short",IF(J44&lt;=50000,"short",IF(J44&lt;=100000,"medium",IF(J44&gt;100000,"long"))))))</f>
+        <v>long</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>16</v>
@@ -3472,8 +3467,8 @@
       <c r="M44" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N44" s="9" t="s">
-        <v>241</v>
+      <c r="N44" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -3481,10 +3476,13 @@
         <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="3">
-        <v>1900</v>
+        <v>1899</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -3493,18 +3491,18 @@
         <v>1925</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G45&lt;1949,"ja", IF(G45="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>T4</v>
-      </c>
-      <c r="J45" s="5">
-        <v>73487</v>
+        <f>IF(C45&lt;=1859,"T1",IF(C45&lt;=1879,"T2",IF(C45&lt;=1899,"T3",IF(C45&lt;=1920,"T4","beyond"))))</f>
+        <v>T3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>92531</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J45="","",IF(J45="please add","",IF(J45&lt;=10000,"too short",IF(J45&lt;=50000,"short",IF(J45&lt;=100000,"medium",IF(J45&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -3514,7 +3512,7 @@
         <v>195</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3522,13 +3520,10 @@
         <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="3">
-        <v>1899</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -3537,18 +3532,18 @@
         <v>1925</v>
       </c>
       <c r="H46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G46&lt;1949,"ja", IF(G46="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>T3</v>
-      </c>
-      <c r="J46" s="2">
-        <v>92531</v>
+        <f>IF(C46&lt;=1859,"T1",IF(C46&lt;=1879,"T2",IF(C46&lt;=1899,"T3",IF(C46&lt;=1920,"T4","beyond"))))</f>
+        <v>T4</v>
+      </c>
+      <c r="J46" s="5">
+        <v>73487</v>
       </c>
       <c r="K46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J46="","",IF(J46="please add","",IF(J46&lt;=10000,"too short",IF(J46&lt;=50000,"short",IF(J46&lt;=100000,"medium",IF(J46&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -3558,7 +3553,7 @@
         <v>195</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3581,18 +3576,18 @@
         <v>1925</v>
       </c>
       <c r="H47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G47&lt;1949,"ja", IF(G47="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C47&lt;=1859,"T1",IF(C47&lt;=1879,"T2",IF(C47&lt;=1899,"T3",IF(C47&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J47" s="5">
         <v>54068</v>
       </c>
       <c r="K47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J47="","",IF(J47="please add","",IF(J47&lt;=10000,"too short",IF(J47&lt;=50000,"short",IF(J47&lt;=100000,"medium",IF(J47&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -3625,18 +3620,18 @@
         <v>1908</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G48&lt;1949,"ja", IF(G48="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C48&lt;=1859,"T1",IF(C48&lt;=1879,"T2",IF(C48&lt;=1899,"T3",IF(C48&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J48" s="2">
         <v>53870</v>
       </c>
       <c r="K48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J48="","",IF(J48="please add","",IF(J48&lt;=10000,"too short",IF(J48&lt;=50000,"short",IF(J48&lt;=100000,"medium",IF(J48&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -3649,7 +3644,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -3666,18 +3661,18 @@
         <v>1908</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G49&lt;1949,"ja", IF(G49="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C49&lt;=1859,"T1",IF(C49&lt;=1879,"T2",IF(C49&lt;=1899,"T3",IF(C49&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J49" s="2">
         <v>39066</v>
       </c>
       <c r="K49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J49="","",IF(J49="please add","",IF(J49&lt;=10000,"too short",IF(J49&lt;=50000,"short",IF(J49&lt;=100000,"medium",IF(J49&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -3690,7 +3685,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -3707,18 +3702,18 @@
         <v>1937</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G50&lt;1949,"ja", IF(G50="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C50&lt;=1859,"T1",IF(C50&lt;=1879,"T2",IF(C50&lt;=1899,"T3",IF(C50&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J50" s="2">
         <v>67609</v>
       </c>
       <c r="K50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J50="","",IF(J50="please add","",IF(J50&lt;=10000,"too short",IF(J50&lt;=50000,"short",IF(J50&lt;=100000,"medium",IF(J50&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -3731,7 +3726,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>97</v>
       </c>
@@ -3751,18 +3746,18 @@
         <v>1925</v>
       </c>
       <c r="H51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G51&lt;1949,"ja", IF(G51="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C51&lt;=1859,"T1",IF(C51&lt;=1879,"T2",IF(C51&lt;=1899,"T3",IF(C51&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J51" s="2">
         <v>52966</v>
       </c>
       <c r="K51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J51="","",IF(J51="please add","",IF(J51&lt;=10000,"too short",IF(J51&lt;=50000,"short",IF(J51&lt;=100000,"medium",IF(J51&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L51" s="4" t="s">
@@ -3775,7 +3770,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>99</v>
       </c>
@@ -3792,18 +3787,18 @@
         <v>1890</v>
       </c>
       <c r="H52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G52&lt;1949,"ja", IF(G52="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C52&lt;=1859,"T1",IF(C52&lt;=1879,"T2",IF(C52&lt;=1899,"T3",IF(C52&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J52" s="5">
         <v>88800</v>
       </c>
       <c r="K52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J52="","",IF(J52="please add","",IF(J52&lt;=10000,"too short",IF(J52&lt;=50000,"short",IF(J52&lt;=100000,"medium",IF(J52&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L52" s="4" t="s">
@@ -3816,95 +3811,98 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C53" s="3">
-        <v>1886</v>
+        <v>1873</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1856</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G53" s="2">
         <v>1890</v>
       </c>
       <c r="H53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G53&lt;1949,"ja", IF(G53="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>T3</v>
-      </c>
-      <c r="J53" s="5">
-        <v>94405</v>
+        <f>IF(C53&lt;=1859,"T1",IF(C53&lt;=1879,"T2",IF(C53&lt;=1899,"T3",IF(C53&lt;=1920,"T4","beyond"))))</f>
+        <v>T2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>90234</v>
       </c>
       <c r="K53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J53="","",IF(J53="please add","",IF(J53&lt;=10000,"too short",IF(J53&lt;=50000,"short",IF(J53&lt;=100000,"medium",IF(J53&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="3">
-        <v>1877</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G54" s="2">
         <v>1890</v>
       </c>
       <c r="H54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G54&lt;1949,"ja", IF(G54="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>T2</v>
-      </c>
-      <c r="J54" s="2">
-        <v>111863</v>
+        <f>IF(C54&lt;=1859,"T1",IF(C54&lt;=1879,"T2",IF(C54&lt;=1899,"T3",IF(C54&lt;=1920,"T4","beyond"))))</f>
+        <v>T3</v>
+      </c>
+      <c r="J54" s="5">
+        <v>94405</v>
       </c>
       <c r="K54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>long</v>
+        <f>IF(J54="","",IF(J54="please add","",IF(J54&lt;=10000,"too short",IF(J54&lt;=50000,"short",IF(J54&lt;=100000,"medium",IF(J54&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>99</v>
       </c>
@@ -3924,18 +3922,18 @@
         <v>1890</v>
       </c>
       <c r="H55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G55&lt;1949,"ja", IF(G55="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C55&lt;=1859,"T1",IF(C55&lt;=1879,"T2",IF(C55&lt;=1899,"T3",IF(C55&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J55" s="2">
         <v>25050</v>
       </c>
       <c r="K55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J55="","",IF(J55="please add","",IF(J55&lt;=10000,"too short",IF(J55&lt;=50000,"short",IF(J55&lt;=100000,"medium",IF(J55&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L55" s="4" t="s">
@@ -3948,18 +3946,18 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="3">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="D56" s="2">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
@@ -3968,31 +3966,31 @@
         <v>1890</v>
       </c>
       <c r="H56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G56&lt;1949,"ja", IF(G56="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C56&lt;=1859,"T1",IF(C56&lt;=1879,"T2",IF(C56&lt;=1899,"T3",IF(C56&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J56" s="2">
-        <v>90234</v>
+        <v>111863</v>
       </c>
       <c r="K56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medium</v>
+        <f>IF(J56="","",IF(J56="please add","",IF(J56&lt;=10000,"too short",IF(J56&lt;=50000,"short",IF(J56&lt;=100000,"medium",IF(J56&gt;100000,"long"))))))</f>
+        <v>long</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>105</v>
       </c>
@@ -4009,18 +4007,18 @@
         <v>1890</v>
       </c>
       <c r="H57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G57&lt;1949,"ja", IF(G57="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I57" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C57&lt;=1859,"T1",IF(C57&lt;=1879,"T2",IF(C57&lt;=1899,"T3",IF(C57&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J57" s="5">
         <v>30767</v>
       </c>
       <c r="K57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J57="","",IF(J57="please add","",IF(J57&lt;=10000,"too short",IF(J57&lt;=50000,"short",IF(J57&lt;=100000,"medium",IF(J57&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L57" s="4" t="s">
@@ -4033,7 +4031,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>107</v>
       </c>
@@ -4050,18 +4048,18 @@
         <v>1933</v>
       </c>
       <c r="H58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G58&lt;1949,"ja", IF(G58="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C58&lt;=1859,"T1",IF(C58&lt;=1879,"T2",IF(C58&lt;=1899,"T3",IF(C58&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J58" s="2">
         <v>33923</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J58="","",IF(J58="please add","",IF(J58&lt;=10000,"too short",IF(J58&lt;=50000,"short",IF(J58&lt;=100000,"medium",IF(J58&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L58" s="4" t="s">
@@ -4074,7 +4072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
@@ -4094,18 +4092,18 @@
         <v>1877</v>
       </c>
       <c r="H59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G59&lt;1949,"ja", IF(G59="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C59&lt;=1859,"T1",IF(C59&lt;=1879,"T2",IF(C59&lt;=1899,"T3",IF(C59&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J59" s="2">
         <v>35343</v>
       </c>
       <c r="K59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J59="","",IF(J59="please add","",IF(J59&lt;=10000,"too short",IF(J59&lt;=50000,"short",IF(J59&lt;=100000,"medium",IF(J59&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L59" s="4" t="s">
@@ -4118,103 +4116,103 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="3">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G60" s="2">
         <v>1933</v>
       </c>
       <c r="H60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G60&lt;1949,"ja", IF(G60="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C60&lt;=1859,"T1",IF(C60&lt;=1879,"T2",IF(C60&lt;=1899,"T3",IF(C60&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J60" s="5">
-        <v>52470</v>
+      <c r="J60" s="2">
+        <v>112581</v>
       </c>
       <c r="K60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medium</v>
+        <f>IF(J60="","",IF(J60="please add","",IF(J60&lt;=10000,"too short",IF(J60&lt;=50000,"short",IF(J60&lt;=100000,"medium",IF(J60&gt;100000,"long"))))))</f>
+        <v>long</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="3">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G61" s="2">
         <v>1933</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G61&lt;1949,"ja", IF(G61="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C61&lt;=1859,"T1",IF(C61&lt;=1879,"T2",IF(C61&lt;=1899,"T3",IF(C61&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J61" s="2">
-        <v>112581</v>
+      <c r="J61" s="5">
+        <v>52470</v>
       </c>
       <c r="K61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>long</v>
+        <f>IF(J61="","",IF(J61="please add","",IF(J61&lt;=10000,"too short",IF(J61&lt;=50000,"short",IF(J61&lt;=100000,"medium",IF(J61&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="3">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>14</v>
@@ -4226,19 +4224,19 @@
         <v>1867</v>
       </c>
       <c r="H62" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G62&lt;1949,"ja", IF(G62="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C62&lt;=1859,"T1",IF(C62&lt;=1879,"T2",IF(C62&lt;=1899,"T3",IF(C62&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J62" s="2">
-        <v>83611</v>
+        <v>44241</v>
       </c>
       <c r="K62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medium</v>
+        <f>IF(J62="","",IF(J62="please add","",IF(J62&lt;=10000,"too short",IF(J62&lt;=50000,"short",IF(J62&lt;=100000,"medium",IF(J62&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>16</v>
@@ -4247,18 +4245,18 @@
         <v>193</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="3">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>14</v>
@@ -4270,19 +4268,19 @@
         <v>1867</v>
       </c>
       <c r="H63" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G63&lt;1949,"ja", IF(G63="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C63&lt;=1859,"T1",IF(C63&lt;=1879,"T2",IF(C63&lt;=1899,"T3",IF(C63&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J63" s="2">
-        <v>44241</v>
+        <v>83611</v>
       </c>
       <c r="K63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>short</v>
+        <f>IF(J63="","",IF(J63="please add","",IF(J63&lt;=10000,"too short",IF(J63&lt;=50000,"short",IF(J63&lt;=100000,"medium",IF(J63&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>16</v>
@@ -4291,18 +4289,18 @@
         <v>193</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C64" s="3">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>14</v>
@@ -4311,28 +4309,28 @@
         <v>1898</v>
       </c>
       <c r="H64" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G64&lt;1949,"ja", IF(G64="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C64&lt;=1859,"T1",IF(C64&lt;=1879,"T2",IF(C64&lt;=1899,"T3",IF(C64&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J64" s="5">
-        <v>22729</v>
+        <v>41845</v>
       </c>
       <c r="K64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J64="","",IF(J64="please add","",IF(J64&lt;=10000,"too short",IF(J64&lt;=50000,"short",IF(J64&lt;=100000,"medium",IF(J64&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -4355,18 +4353,18 @@
         <v>1898</v>
       </c>
       <c r="H65" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G65&lt;1949,"ja", IF(G65="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C65&lt;=1859,"T1",IF(C65&lt;=1879,"T2",IF(C65&lt;=1899,"T3",IF(C65&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J65" s="5">
         <v>27826</v>
       </c>
       <c r="K65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J65="","",IF(J65="please add","",IF(J65&lt;=10000,"too short",IF(J65&lt;=50000,"short",IF(J65&lt;=100000,"medium",IF(J65&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L65" s="4" t="s">
@@ -4384,10 +4382,10 @@
         <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C66" s="3">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>14</v>
@@ -4396,28 +4394,28 @@
         <v>1898</v>
       </c>
       <c r="H66" s="2" t="str">
-        <f t="shared" ref="H66:H110" si="3">IF(G66&lt;1949,"ja", IF(G66="please add","","nein"))</f>
+        <f>IF(G66&lt;1949,"ja", IF(G66="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f t="shared" ref="I66:I110" si="4">IF(C66&lt;=1859,"T1",IF(C66&lt;=1879,"T2",IF(C66&lt;=1899,"T3",IF(C66&lt;=1920,"T4","beyond"))))</f>
+        <f>IF(C66&lt;=1859,"T1",IF(C66&lt;=1879,"T2",IF(C66&lt;=1899,"T3",IF(C66&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J66" s="5">
-        <v>41845</v>
+        <v>22729</v>
       </c>
       <c r="K66" s="2" t="str">
-        <f t="shared" ref="K66:K110" si="5">IF(J66="","",IF(J66="please add","",IF(J66&lt;=10000,"too short",IF(J66&lt;=50000,"short",IF(J66&lt;=100000,"medium",IF(J66&gt;100000,"long"))))))</f>
+        <f>IF(J66="","",IF(J66="please add","",IF(J66&lt;=10000,"too short",IF(J66&lt;=50000,"short",IF(J66&lt;=100000,"medium",IF(J66&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4443,18 +4441,18 @@
         <v>1898</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G67&lt;1949,"ja", IF(G67="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C67&lt;=1859,"T1",IF(C67&lt;=1879,"T2",IF(C67&lt;=1899,"T3",IF(C67&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J67" s="2">
         <v>72790</v>
       </c>
       <c r="K67" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J67="","",IF(J67="please add","",IF(J67&lt;=10000,"too short",IF(J67&lt;=50000,"short",IF(J67&lt;=100000,"medium",IF(J67&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L67" s="4" t="s">
@@ -4487,18 +4485,18 @@
         <v>1969</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G68&lt;1949,"ja", IF(G68="please add","","nein"))</f>
         <v>nein</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C68&lt;=1859,"T1",IF(C68&lt;=1879,"T2",IF(C68&lt;=1899,"T3",IF(C68&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J68" s="5">
         <v>68956</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J68="","",IF(J68="please add","",IF(J68&lt;=10000,"too short",IF(J68&lt;=50000,"short",IF(J68&lt;=100000,"medium",IF(J68&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L68" s="4" t="s">
@@ -4528,18 +4526,18 @@
         <v>1909</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G69&lt;1949,"ja", IF(G69="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C69&lt;=1859,"T1",IF(C69&lt;=1879,"T2",IF(C69&lt;=1899,"T3",IF(C69&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J69" s="2">
         <v>22754</v>
       </c>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J69="","",IF(J69="please add","",IF(J69&lt;=10000,"too short",IF(J69&lt;=50000,"short",IF(J69&lt;=100000,"medium",IF(J69&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L69" s="4" t="s">
@@ -4557,10 +4555,10 @@
         <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70" s="3">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>22</v>
@@ -4569,18 +4567,18 @@
         <v>1929</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G70&lt;1949,"ja", IF(G70="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C70&lt;=1859,"T1",IF(C70&lt;=1879,"T2",IF(C70&lt;=1899,"T3",IF(C70&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J70" s="2">
-        <v>208934</v>
+        <v>108738</v>
       </c>
       <c r="K70" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J70="","",IF(J70="please add","",IF(J70&lt;=10000,"too short",IF(J70&lt;=50000,"short",IF(J70&lt;=100000,"medium",IF(J70&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L70" s="4" t="s">
@@ -4590,7 +4588,7 @@
         <v>193</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -4598,10 +4596,10 @@
         <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="3">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>22</v>
@@ -4610,18 +4608,18 @@
         <v>1929</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G71&lt;1949,"ja", IF(G71="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C71&lt;=1859,"T1",IF(C71&lt;=1879,"T2",IF(C71&lt;=1899,"T3",IF(C71&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J71" s="2">
-        <v>108738</v>
+        <v>208934</v>
       </c>
       <c r="K71" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J71="","",IF(J71="please add","",IF(J71&lt;=10000,"too short",IF(J71&lt;=50000,"short",IF(J71&lt;=100000,"medium",IF(J71&gt;100000,"long"))))))</f>
         <v>long</v>
       </c>
       <c r="L71" s="4" t="s">
@@ -4631,7 +4629,7 @@
         <v>193</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -4657,18 +4655,18 @@
         <v>1890</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G72&lt;1949,"ja", IF(G72="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C72&lt;=1859,"T1",IF(C72&lt;=1879,"T2",IF(C72&lt;=1899,"T3",IF(C72&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J72" s="5">
         <v>75238</v>
       </c>
       <c r="K72" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J72="","",IF(J72="please add","",IF(J72&lt;=10000,"too short",IF(J72&lt;=50000,"short",IF(J72&lt;=100000,"medium",IF(J72&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L72" s="4" t="s">
@@ -4686,13 +4684,10 @@
         <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C73" s="3">
-        <v>1909</v>
-      </c>
-      <c r="D73" s="2">
-        <v>2005</v>
+        <v>1911</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>14</v>
@@ -4704,28 +4699,28 @@
         <v>1944</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G73&lt;1949,"ja", IF(G73="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I73" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C73&lt;=1859,"T1",IF(C73&lt;=1879,"T2",IF(C73&lt;=1899,"T3",IF(C73&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J73" s="2">
-        <v>34368</v>
+        <v>72606</v>
       </c>
       <c r="K73" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>short</v>
+        <f>IF(J73="","",IF(J73="please add","",IF(J73&lt;=10000,"too short",IF(J73&lt;=50000,"short",IF(J73&lt;=100000,"medium",IF(J73&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4733,46 +4728,40 @@
         <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C74" s="3">
-        <v>1910</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>135</v>
+        <v>1907</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G74" s="2">
         <v>1944</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G74&lt;1949,"ja", IF(G74="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C74&lt;=1859,"T1",IF(C74&lt;=1879,"T2",IF(C74&lt;=1899,"T3",IF(C74&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J74" s="2">
-        <v>90029</v>
+        <v>54604</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J74="","",IF(J74="please add","",IF(J74&lt;=10000,"too short",IF(J74&lt;=50000,"short",IF(J74&lt;=100000,"medium",IF(J74&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4780,10 +4769,13 @@
         <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C75" s="3">
-        <v>1911</v>
+        <v>1909</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2005</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>14</v>
@@ -4795,28 +4787,28 @@
         <v>1944</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G75&lt;1949,"ja", IF(G75="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I75" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C75&lt;=1859,"T1",IF(C75&lt;=1879,"T2",IF(C75&lt;=1899,"T3",IF(C75&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J75" s="2">
-        <v>72606</v>
+        <v>34368</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>medium</v>
+        <f>IF(J75="","",IF(J75="please add","",IF(J75&lt;=10000,"too short",IF(J75&lt;=50000,"short",IF(J75&lt;=100000,"medium",IF(J75&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4824,10 +4816,10 @@
         <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="3">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>14</v>
@@ -4836,19 +4828,19 @@
         <v>1944</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G76&lt;1949,"ja", IF(G76="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C76&lt;=1859,"T1",IF(C76&lt;=1879,"T2",IF(C76&lt;=1899,"T3",IF(C76&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J76" s="2">
-        <v>54604</v>
+        <v>38505</v>
       </c>
       <c r="K76" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>medium</v>
+        <f>IF(J76="","",IF(J76="please add","",IF(J76&lt;=10000,"too short",IF(J76&lt;=50000,"short",IF(J76&lt;=100000,"medium",IF(J76&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>16</v>
@@ -4857,7 +4849,7 @@
         <v>193</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4865,30 +4857,33 @@
         <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="3">
-        <v>1905</v>
+        <v>1920</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G77" s="2">
         <v>1944</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G77&lt;1949,"ja", IF(G77="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C77&lt;=1859,"T1",IF(C77&lt;=1879,"T2",IF(C77&lt;=1899,"T3",IF(C77&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J77" s="2">
-        <v>38505</v>
+        <v>47747</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J77="","",IF(J77="please add","",IF(J77&lt;=10000,"too short",IF(J77&lt;=50000,"short",IF(J77&lt;=100000,"medium",IF(J77&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L77" s="4" t="s">
@@ -4898,7 +4893,7 @@
         <v>193</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4906,10 +4901,13 @@
         <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C78" s="3">
-        <v>1920</v>
+        <v>1910</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>14</v>
@@ -4921,28 +4919,28 @@
         <v>1944</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G78&lt;1949,"ja", IF(G78="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I78" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C78&lt;=1859,"T1",IF(C78&lt;=1879,"T2",IF(C78&lt;=1899,"T3",IF(C78&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J78" s="2">
-        <v>47747</v>
+        <v>90029</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>short</v>
+        <f>IF(J78="","",IF(J78="please add","",IF(J78&lt;=10000,"too short",IF(J78&lt;=50000,"short",IF(J78&lt;=100000,"medium",IF(J78&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4950,13 +4948,10 @@
         <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3">
-        <v>1891</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>1895</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -4965,18 +4960,18 @@
         <v>1915</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G79&lt;1949,"ja", IF(G79="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I79" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C79&lt;=1859,"T1",IF(C79&lt;=1879,"T2",IF(C79&lt;=1899,"T3",IF(C79&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J79" s="2">
-        <v>37096</v>
+        <v>30070</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J79="","",IF(J79="please add","",IF(J79&lt;=10000,"too short",IF(J79&lt;=50000,"short",IF(J79&lt;=100000,"medium",IF(J79&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L79" s="4" t="s">
@@ -4986,7 +4981,7 @@
         <v>193</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4994,10 +4989,13 @@
         <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C80" s="3">
-        <v>1895</v>
+        <v>1891</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -5006,18 +5004,18 @@
         <v>1915</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G80&lt;1949,"ja", IF(G80="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I80" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C80&lt;=1859,"T1",IF(C80&lt;=1879,"T2",IF(C80&lt;=1899,"T3",IF(C80&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J80" s="2">
-        <v>30070</v>
+        <v>37096</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J80="","",IF(J80="please add","",IF(J80&lt;=10000,"too short",IF(J80&lt;=50000,"short",IF(J80&lt;=100000,"medium",IF(J80&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L80" s="4" t="s">
@@ -5027,10 +5025,10 @@
         <v>193</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>144</v>
       </c>
@@ -5047,18 +5045,18 @@
         <v>1945</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G81&lt;1949,"ja", IF(G81="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I81" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C81&lt;=1859,"T1",IF(C81&lt;=1879,"T2",IF(C81&lt;=1899,"T3",IF(C81&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J81" s="2">
         <v>66783</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J81="","",IF(J81="please add","",IF(J81&lt;=10000,"too short",IF(J81&lt;=50000,"short",IF(J81&lt;=100000,"medium",IF(J81&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L81" s="4" t="s">
@@ -5071,7 +5069,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>144</v>
       </c>
@@ -5088,18 +5086,18 @@
         <v>1945</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G82&lt;1949,"ja", IF(G82="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C82&lt;=1859,"T1",IF(C82&lt;=1879,"T2",IF(C82&lt;=1899,"T3",IF(C82&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J82" s="2">
         <v>38298</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J82="","",IF(J82="please add","",IF(J82&lt;=10000,"too short",IF(J82&lt;=50000,"short",IF(J82&lt;=100000,"medium",IF(J82&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L82" s="4" t="s">
@@ -5112,7 +5110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
@@ -5129,18 +5127,18 @@
         <v>1945</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G83&lt;1949,"ja", IF(G83="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I83" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C83&lt;=1859,"T1",IF(C83&lt;=1879,"T2",IF(C83&lt;=1899,"T3",IF(C83&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J83" s="2">
         <v>3497</v>
       </c>
       <c r="K83" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J83="","",IF(J83="please add","",IF(J83&lt;=10000,"too short",IF(J83&lt;=50000,"short",IF(J83&lt;=100000,"medium",IF(J83&gt;100000,"long"))))))</f>
         <v>too short</v>
       </c>
       <c r="L83" s="4" t="s">
@@ -5153,7 +5151,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>148</v>
       </c>
@@ -5173,18 +5171,18 @@
         <v>1947</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G84&lt;1949,"ja", IF(G84="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I84" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C84&lt;=1859,"T1",IF(C84&lt;=1879,"T2",IF(C84&lt;=1899,"T3",IF(C84&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J84" s="5">
         <v>58249</v>
       </c>
       <c r="K84" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J84="","",IF(J84="please add","",IF(J84&lt;=10000,"too short",IF(J84&lt;=50000,"short",IF(J84&lt;=100000,"medium",IF(J84&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L84" s="4" t="s">
@@ -5197,56 +5195,56 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C85" s="3">
-        <v>1890</v>
+        <v>1904</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G85" s="2">
         <v>1947</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G85&lt;1949,"ja", IF(G85="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I85" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>T3</v>
-      </c>
-      <c r="J85" s="5">
-        <v>60972</v>
+        <f>IF(C85&lt;=1859,"T1",IF(C85&lt;=1879,"T2",IF(C85&lt;=1899,"T3",IF(C85&lt;=1920,"T4","beyond"))))</f>
+        <v>T4</v>
+      </c>
+      <c r="J85" s="2">
+        <v>35145</v>
       </c>
       <c r="K85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>medium</v>
+        <f>IF(J85="","",IF(J85="please add","",IF(J85&lt;=10000,"too short",IF(J85&lt;=50000,"short",IF(J85&lt;=100000,"medium",IF(J85&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="3">
         <v>1890</v>
@@ -5254,22 +5252,25 @@
       <c r="E86" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F86" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G86" s="2">
         <v>1947</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G86&lt;1949,"ja", IF(G86="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I86" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C86&lt;=1859,"T1",IF(C86&lt;=1879,"T2",IF(C86&lt;=1899,"T3",IF(C86&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J86" s="5">
-        <v>60599</v>
+        <v>60972</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J86="","",IF(J86="please add","",IF(J86&lt;=10000,"too short",IF(J86&lt;=50000,"short",IF(J86&lt;=100000,"medium",IF(J86&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L86" s="4" t="s">
@@ -5279,57 +5280,51 @@
         <v>201</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="3">
-        <v>1904</v>
+        <v>1890</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G87" s="2">
         <v>1947</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G87&lt;1949,"ja", IF(G87="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I87" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>T4</v>
-      </c>
-      <c r="J87" s="2">
-        <v>35145</v>
+        <f>IF(C87&lt;=1859,"T1",IF(C87&lt;=1879,"T2",IF(C87&lt;=1899,"T3",IF(C87&lt;=1920,"T4","beyond"))))</f>
+        <v>T3</v>
+      </c>
+      <c r="J87" s="5">
+        <v>60599</v>
       </c>
       <c r="K87" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>short</v>
+        <f>IF(J87="","",IF(J87="please add","",IF(J87&lt;=10000,"too short",IF(J87&lt;=50000,"short",IF(J87&lt;=100000,"medium",IF(J87&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>153</v>
       </c>
@@ -5346,18 +5341,18 @@
         <v>1924</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G88&lt;1949,"ja", IF(G88="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I88" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C88&lt;=1859,"T1",IF(C88&lt;=1879,"T2",IF(C88&lt;=1899,"T3",IF(C88&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J88" s="5">
         <v>9015</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J88="","",IF(J88="please add","",IF(J88&lt;=10000,"too short",IF(J88&lt;=50000,"short",IF(J88&lt;=100000,"medium",IF(J88&gt;100000,"long"))))))</f>
         <v>too short</v>
       </c>
       <c r="L88" s="4" t="s">
@@ -5370,7 +5365,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>153</v>
       </c>
@@ -5390,18 +5385,18 @@
         <v>1924</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G89&lt;1949,"ja", IF(G89="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C89&lt;=1859,"T1",IF(C89&lt;=1879,"T2",IF(C89&lt;=1899,"T3",IF(C89&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J89" s="5">
         <v>47104</v>
       </c>
       <c r="K89" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J89="","",IF(J89="please add","",IF(J89&lt;=10000,"too short",IF(J89&lt;=50000,"short",IF(J89&lt;=100000,"medium",IF(J89&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L89" s="4" t="s">
@@ -5414,12 +5409,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C90" s="3">
         <v>1880</v>
@@ -5431,83 +5426,80 @@
         <v>1901</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G90&lt;1949,"ja", IF(G90="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I90" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C90&lt;=1859,"T1",IF(C90&lt;=1879,"T2",IF(C90&lt;=1899,"T3",IF(C90&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J90" s="5">
-        <v>25970</v>
+        <v>60869</v>
       </c>
       <c r="K90" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>short</v>
+        <f>IF(J90="","",IF(J90="please add","",IF(J90&lt;=10000,"too short",IF(J90&lt;=50000,"short",IF(J90&lt;=100000,"medium",IF(J90&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" s="3">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G91" s="2">
         <v>1901</v>
       </c>
       <c r="H91" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G91&lt;1949,"ja", IF(G91="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I91" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C91&lt;=1859,"T1",IF(C91&lt;=1879,"T2",IF(C91&lt;=1899,"T3",IF(C91&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J91" s="5">
-        <v>69653</v>
+        <v>25970</v>
       </c>
       <c r="K91" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>medium</v>
+        <f>IF(J91="","",IF(J91="please add","",IF(J91&lt;=10000,"too short",IF(J91&lt;=50000,"short",IF(J91&lt;=100000,"medium",IF(J91&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C92" s="3">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>22</v>
@@ -5516,72 +5508,75 @@
         <v>1901</v>
       </c>
       <c r="H92" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G92&lt;1949,"ja", IF(G92="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I92" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>T3</v>
-      </c>
-      <c r="J92" s="5">
-        <v>60869</v>
+        <f>IF(C92&lt;=1859,"T1",IF(C92&lt;=1879,"T2",IF(C92&lt;=1899,"T3",IF(C92&lt;=1920,"T4","beyond"))))</f>
+        <v>T2</v>
+      </c>
+      <c r="J92" s="2">
+        <v>46112</v>
       </c>
       <c r="K92" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>medium</v>
+        <f>IF(J92="","",IF(J92="please add","",IF(J92&lt;=10000,"too short",IF(J92&lt;=50000,"short",IF(J92&lt;=100000,"medium",IF(J92&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C93" s="3">
-        <v>1879</v>
+        <v>1886</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F93" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G93" s="2">
         <v>1901</v>
       </c>
       <c r="H93" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G93&lt;1949,"ja", IF(G93="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I93" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>T2</v>
-      </c>
-      <c r="J93" s="2">
-        <v>46112</v>
+        <f>IF(C93&lt;=1859,"T1",IF(C93&lt;=1879,"T2",IF(C93&lt;=1899,"T3",IF(C93&lt;=1920,"T4","beyond"))))</f>
+        <v>T3</v>
+      </c>
+      <c r="J93" s="5">
+        <v>69653</v>
       </c>
       <c r="K93" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>short</v>
+        <f>IF(J93="","",IF(J93="please add","",IF(J93&lt;=10000,"too short",IF(J93&lt;=50000,"short",IF(J93&lt;=100000,"medium",IF(J93&gt;100000,"long"))))))</f>
+        <v>medium</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>161</v>
       </c>
@@ -5601,18 +5596,18 @@
         <v>1934</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G94&lt;1949,"ja", IF(G94="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I94" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C94&lt;=1859,"T1",IF(C94&lt;=1879,"T2",IF(C94&lt;=1899,"T3",IF(C94&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J94" s="2">
         <v>70121</v>
       </c>
       <c r="K94" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J94="","",IF(J94="please add","",IF(J94&lt;=10000,"too short",IF(J94&lt;=50000,"short",IF(J94&lt;=100000,"medium",IF(J94&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L94" s="4" t="s">
@@ -5625,7 +5620,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>161</v>
       </c>
@@ -5645,18 +5640,18 @@
         <v>1934</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G95&lt;1949,"ja", IF(G95="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I95" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C95&lt;=1859,"T1",IF(C95&lt;=1879,"T2",IF(C95&lt;=1899,"T3",IF(C95&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J95" s="2">
         <v>69792</v>
       </c>
       <c r="K95" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J95="","",IF(J95="please add","",IF(J95&lt;=10000,"too short",IF(J95&lt;=50000,"short",IF(J95&lt;=100000,"medium",IF(J95&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L95" s="4" t="s">
@@ -5669,7 +5664,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>161</v>
       </c>
@@ -5689,18 +5684,18 @@
         <v>1934</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G96&lt;1949,"ja", IF(G96="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I96" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C96&lt;=1859,"T1",IF(C96&lt;=1879,"T2",IF(C96&lt;=1899,"T3",IF(C96&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J96" s="2">
         <v>87950</v>
       </c>
       <c r="K96" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J96="","",IF(J96="please add","",IF(J96&lt;=10000,"too short",IF(J96&lt;=50000,"short",IF(J96&lt;=100000,"medium",IF(J96&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L96" s="4" t="s">
@@ -5733,18 +5728,18 @@
         <v>1886</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G97&lt;1949,"ja", IF(G97="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I97" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C97&lt;=1859,"T1",IF(C97&lt;=1879,"T2",IF(C97&lt;=1899,"T3",IF(C97&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J97" s="2">
         <v>12710</v>
       </c>
       <c r="K97" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J97="","",IF(J97="please add","",IF(J97&lt;=10000,"too short",IF(J97&lt;=50000,"short",IF(J97&lt;=100000,"medium",IF(J97&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L97" s="4" t="s">
@@ -5777,18 +5772,18 @@
         <v>1947</v>
       </c>
       <c r="H98" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G98&lt;1949,"ja", IF(G98="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I98" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C98&lt;=1859,"T1",IF(C98&lt;=1879,"T2",IF(C98&lt;=1899,"T3",IF(C98&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J98" s="5">
         <v>97111</v>
       </c>
       <c r="K98" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J98="","",IF(J98="please add","",IF(J98&lt;=10000,"too short",IF(J98&lt;=50000,"short",IF(J98&lt;=100000,"medium",IF(J98&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L98" s="4" t="s">
@@ -5806,31 +5801,34 @@
         <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C99" s="3">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F99" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G99" s="2">
         <v>1939</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G99&lt;1949,"ja", IF(G99="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I99" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C99&lt;=1859,"T1",IF(C99&lt;=1879,"T2",IF(C99&lt;=1899,"T3",IF(C99&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J99" s="2">
-        <v>114532</v>
+        <v>12497</v>
       </c>
       <c r="K99" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>long</v>
+        <f>IF(J99="","",IF(J99="please add","",IF(J99&lt;=10000,"too short",IF(J99&lt;=50000,"short",IF(J99&lt;=100000,"medium",IF(J99&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>19</v>
@@ -5839,7 +5837,7 @@
         <v>195</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -5847,34 +5845,31 @@
         <v>169</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100" s="3">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G100" s="2">
         <v>1939</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G100&lt;1949,"ja", IF(G100="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I100" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C100&lt;=1859,"T1",IF(C100&lt;=1879,"T2",IF(C100&lt;=1899,"T3",IF(C100&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J100" s="2">
-        <v>12497</v>
+        <v>114532</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>short</v>
+        <f>IF(J100="","",IF(J100="please add","",IF(J100&lt;=10000,"too short",IF(J100&lt;=50000,"short",IF(J100&lt;=100000,"medium",IF(J100&gt;100000,"long"))))))</f>
+        <v>long</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>19</v>
@@ -5883,7 +5878,7 @@
         <v>195</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5906,18 +5901,18 @@
         <v>1939</v>
       </c>
       <c r="H101" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G101&lt;1949,"ja", IF(G101="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I101" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C101&lt;=1859,"T1",IF(C101&lt;=1879,"T2",IF(C101&lt;=1899,"T3",IF(C101&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J101" s="2">
         <v>16808</v>
       </c>
       <c r="K101" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J101="","",IF(J101="please add","",IF(J101&lt;=10000,"too short",IF(J101&lt;=50000,"short",IF(J101&lt;=100000,"medium",IF(J101&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L101" s="4" t="s">
@@ -5950,18 +5945,18 @@
         <v>1896</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G102&lt;1949,"ja", IF(G102="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I102" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C102&lt;=1859,"T1",IF(C102&lt;=1879,"T2",IF(C102&lt;=1899,"T3",IF(C102&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J102" s="2">
         <v>17730</v>
       </c>
       <c r="K102" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J102="","",IF(J102="please add","",IF(J102&lt;=10000,"too short",IF(J102&lt;=50000,"short",IF(J102&lt;=100000,"medium",IF(J102&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L102" s="4" t="s">
@@ -5994,18 +5989,18 @@
         <v>1920</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G103&lt;1949,"ja", IF(G103="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I103" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C103&lt;=1859,"T1",IF(C103&lt;=1879,"T2",IF(C103&lt;=1899,"T3",IF(C103&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J103" s="2">
         <v>65747</v>
       </c>
       <c r="K103" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J103="","",IF(J103="please add","",IF(J103&lt;=10000,"too short",IF(J103&lt;=50000,"short",IF(J103&lt;=100000,"medium",IF(J103&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L103" s="4" t="s">
@@ -6023,10 +6018,10 @@
         <v>177</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C104" s="3">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>22</v>
@@ -6038,18 +6033,18 @@
         <v>1941</v>
       </c>
       <c r="H104" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G104&lt;1949,"ja", IF(G104="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I104" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C104&lt;=1859,"T1",IF(C104&lt;=1879,"T2",IF(C104&lt;=1899,"T3",IF(C104&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J104" s="5">
-        <v>76484</v>
+        <v>77211</v>
       </c>
       <c r="K104" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J104="","",IF(J104="please add","",IF(J104&lt;=10000,"too short",IF(J104&lt;=50000,"short",IF(J104&lt;=100000,"medium",IF(J104&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L104" s="4" t="s">
@@ -6059,7 +6054,7 @@
         <v>201</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -6082,18 +6077,18 @@
         <v>1941</v>
       </c>
       <c r="H105" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G105&lt;1949,"ja", IF(G105="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I105" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C105&lt;=1859,"T1",IF(C105&lt;=1879,"T2",IF(C105&lt;=1899,"T3",IF(C105&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J105" s="5">
         <v>81053</v>
       </c>
       <c r="K105" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J105="","",IF(J105="please add","",IF(J105&lt;=10000,"too short",IF(J105&lt;=50000,"short",IF(J105&lt;=100000,"medium",IF(J105&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L105" s="4" t="s">
@@ -6111,10 +6106,10 @@
         <v>177</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C106" s="3">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>22</v>
@@ -6126,18 +6121,18 @@
         <v>1941</v>
       </c>
       <c r="H106" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G106&lt;1949,"ja", IF(G106="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I106" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C106&lt;=1859,"T1",IF(C106&lt;=1879,"T2",IF(C106&lt;=1899,"T3",IF(C106&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J106" s="5">
-        <v>77211</v>
+        <v>76484</v>
       </c>
       <c r="K106" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J106="","",IF(J106="please add","",IF(J106&lt;=10000,"too short",IF(J106&lt;=50000,"short",IF(J106&lt;=100000,"medium",IF(J106&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L106" s="4" t="s">
@@ -6147,7 +6142,7 @@
         <v>201</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -6170,18 +6165,18 @@
         <v>1918</v>
       </c>
       <c r="H107" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G107&lt;1949,"ja", IF(G107="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I107" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C107&lt;=1859,"T1",IF(C107&lt;=1879,"T2",IF(C107&lt;=1899,"T3",IF(C107&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J107" s="2">
         <v>79195</v>
       </c>
       <c r="K107" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J107="","",IF(J107="please add","",IF(J107&lt;=10000,"too short",IF(J107&lt;=50000,"short",IF(J107&lt;=100000,"medium",IF(J107&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L107" s="4" t="s">
@@ -6199,34 +6194,37 @@
         <v>184</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C108" s="6">
         <v>1918</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G108" s="2">
         <v>1918</v>
       </c>
       <c r="H108" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G108&lt;1949,"ja", IF(G108="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I108" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C108&lt;=1859,"T1",IF(C108&lt;=1879,"T2",IF(C108&lt;=1899,"T3",IF(C108&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J108" s="2">
-        <v>7510</v>
+        <v>36458</v>
       </c>
       <c r="K108" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>too short</v>
+        <f>IF(J108="","",IF(J108="please add","",IF(J108&lt;=10000,"too short",IF(J108&lt;=50000,"short",IF(J108&lt;=100000,"medium",IF(J108&gt;100000,"long"))))))</f>
+        <v>short</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>16</v>
@@ -6235,7 +6233,7 @@
         <v>193</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -6243,37 +6241,34 @@
         <v>184</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C109" s="6">
         <v>1918</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G109" s="2">
         <v>1918</v>
       </c>
       <c r="H109" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G109&lt;1949,"ja", IF(G109="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I109" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C109&lt;=1859,"T1",IF(C109&lt;=1879,"T2",IF(C109&lt;=1899,"T3",IF(C109&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J109" s="2">
-        <v>36458</v>
+        <v>7510</v>
       </c>
       <c r="K109" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>short</v>
+        <f>IF(J109="","",IF(J109="please add","",IF(J109&lt;=10000,"too short",IF(J109&lt;=50000,"short",IF(J109&lt;=100000,"medium",IF(J109&gt;100000,"long"))))))</f>
+        <v>too short</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>16</v>
@@ -6282,7 +6277,7 @@
         <v>193</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -6305,18 +6300,18 @@
         <v>1885</v>
       </c>
       <c r="H110" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(G110&lt;1949,"ja", IF(G110="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I110" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C110&lt;=1859,"T1",IF(C110&lt;=1879,"T2",IF(C110&lt;=1899,"T3",IF(C110&lt;=1920,"T4","beyond"))))</f>
         <v>T2</v>
       </c>
       <c r="J110" s="2">
         <v>24356</v>
       </c>
       <c r="K110" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(J110="","",IF(J110="please add","",IF(J110&lt;=10000,"too short",IF(J110&lt;=50000,"short",IF(J110&lt;=100000,"medium",IF(J110&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L110" s="4" t="s">
@@ -6561,109 +6556,117 @@
       <c r="C187" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N110" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}"/>
+  <autoFilter ref="A1:N110" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N110">
+      <sortCondition ref="N1:N110"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O110">
+    <sortCondition ref="A2:A110"/>
+    <sortCondition ref="B2:B110"/>
+  </sortState>
   <conditionalFormatting sqref="A107:G110 A103:G103 A102:F102 A105:G105 A104:E104 A106:E106 M71:N71 M59:N59 M62:N63 M52:N54 M48:N49 M30:N30 M38:N45 M20:N27 L60:N61 L46:N47 L3:N19 L107:N107 L55:N58 L50:N51 L28:N29 L64:N70 L72:N98 A1:N2 A111:N1048576 L103:N103 H3:K110 A3:G101 L31:N37 L2:L110 O29">
-    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="21" priority="36" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L187">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H110">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="nein">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="nein">
       <formula>NOT(ISERROR(SEARCH("nein",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I280">
-    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="beyond">
+    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="beyond">
       <formula>NOT(ISERROR(SEARCH("beyond",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L187">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C187">
-    <cfRule type="cellIs" dxfId="16" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="30" operator="greaterThan">
       <formula>1920</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104 F106:G106 N102 N108:N110 L99:N101 L104:N106">
-    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="13" priority="28" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="containsText" dxfId="13" priority="26" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",G102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:M110 M102">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",M102)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metadata-ELTEC-gsw.xlsx
+++ b/metadata-ELTEC-gsw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/ELTeC-gsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B202DEA7-3B33-5A4D-8B15-E41489862B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768D29C-8036-5D4B-B683-40AF598F57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="1060" windowWidth="21360" windowHeight="15260" xr2:uid="{75C0215C-EFA7-5044-9261-F41722653DFC}"/>
   </bookViews>
@@ -1091,7 +1091,359 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="73">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6B3"/>
+          <bgColor rgb="FFFFE6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="2"/>
@@ -1553,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F44" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1643,18 +1995,18 @@
         <v>1946</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f>IF(G2&lt;1949,"ja", IF(G2="please add","","nein"))</f>
+        <f t="shared" ref="H2:H33" si="0">IF(G2&lt;1949,"ja", IF(G2="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>IF(C2&lt;=1859,"T1",IF(C2&lt;=1879,"T2",IF(C2&lt;=1899,"T3",IF(C2&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" ref="I2:I33" si="1">IF(C2&lt;=1859,"T1",IF(C2&lt;=1879,"T2",IF(C2&lt;=1899,"T3",IF(C2&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J2" s="2">
         <v>39884</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f>IF(J2="","",IF(J2="please add","",IF(J2&lt;=10000,"too short",IF(J2&lt;=50000,"short",IF(J2&lt;=100000,"medium",IF(J2&gt;100000,"long"))))))</f>
+        <f t="shared" ref="K2:K33" si="2">IF(J2="","",IF(J2="please add","",IF(J2&lt;=10000,"too short",IF(J2&lt;=50000,"short",IF(J2&lt;=100000,"medium",IF(J2&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1684,18 +2036,18 @@
         <v>1942</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>IF(G3&lt;1949,"ja", IF(G3="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f>IF(C3&lt;=1859,"T1",IF(C3&lt;=1879,"T2",IF(C3&lt;=1899,"T3",IF(C3&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J3" s="5">
         <v>30370</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f>IF(J3="","",IF(J3="please add","",IF(J3&lt;=10000,"too short",IF(J3&lt;=50000,"short",IF(J3&lt;=100000,"medium",IF(J3&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1725,18 +2077,18 @@
         <v>1927</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f>IF(G4&lt;1949,"ja", IF(G4="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>IF(C4&lt;=1859,"T1",IF(C4&lt;=1879,"T2",IF(C4&lt;=1899,"T3",IF(C4&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J4" s="5">
         <v>82874</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f>IF(J4="","",IF(J4="please add","",IF(J4&lt;=10000,"too short",IF(J4&lt;=50000,"short",IF(J4&lt;=100000,"medium",IF(J4&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1769,18 +2121,18 @@
         <v>1916</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>IF(G5&lt;1949,"ja", IF(G5="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f>IF(C5&lt;=1859,"T1",IF(C5&lt;=1879,"T2",IF(C5&lt;=1899,"T3",IF(C5&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J5" s="2">
         <v>28754</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>IF(J5="","",IF(J5="please add","",IF(J5&lt;=10000,"too short",IF(J5&lt;=50000,"short",IF(J5&lt;=100000,"medium",IF(J5&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1813,18 +2165,18 @@
         <v>1916</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>IF(G6&lt;1949,"ja", IF(G6="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IF(C6&lt;=1859,"T1",IF(C6&lt;=1879,"T2",IF(C6&lt;=1899,"T3",IF(C6&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J6" s="2">
         <v>21982</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f>IF(J6="","",IF(J6="please add","",IF(J6&lt;=10000,"too short",IF(J6&lt;=50000,"short",IF(J6&lt;=100000,"medium",IF(J6&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1854,18 +2206,18 @@
         <v>1916</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>IF(G7&lt;1949,"ja", IF(G7="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IF(C7&lt;=1859,"T1",IF(C7&lt;=1879,"T2",IF(C7&lt;=1899,"T3",IF(C7&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T3</v>
       </c>
       <c r="J7" s="5">
         <v>44524</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f>IF(J7="","",IF(J7="please add","",IF(J7&lt;=10000,"too short",IF(J7&lt;=50000,"short",IF(J7&lt;=100000,"medium",IF(J7&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -1898,18 +2250,18 @@
         <v>1937</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>IF(G8&lt;1949,"ja", IF(G8="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IF(C8&lt;=1859,"T1",IF(C8&lt;=1879,"T2",IF(C8&lt;=1899,"T3",IF(C8&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J8" s="2">
         <v>79181</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>IF(J8="","",IF(J8="please add","",IF(J8&lt;=10000,"too short",IF(J8&lt;=50000,"short",IF(J8&lt;=100000,"medium",IF(J8&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -1939,18 +2291,18 @@
         <v>1937</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>IF(G9&lt;1949,"ja", IF(G9="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF(C9&lt;=1859,"T1",IF(C9&lt;=1879,"T2",IF(C9&lt;=1899,"T3",IF(C9&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J9" s="2">
         <v>63642</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>IF(J9="","",IF(J9="please add","",IF(J9&lt;=10000,"too short",IF(J9&lt;=50000,"short",IF(J9&lt;=100000,"medium",IF(J9&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1980,18 +2332,18 @@
         <v>1937</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>IF(G10&lt;1949,"ja", IF(G10="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF(C10&lt;=1859,"T1",IF(C10&lt;=1879,"T2",IF(C10&lt;=1899,"T3",IF(C10&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J10" s="2">
         <v>96480</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f>IF(J10="","",IF(J10="please add","",IF(J10&lt;=10000,"too short",IF(J10&lt;=50000,"short",IF(J10&lt;=100000,"medium",IF(J10&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -2024,18 +2376,18 @@
         <v>1919</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>IF(G11&lt;1949,"ja", IF(G11="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f>IF(C11&lt;=1859,"T1",IF(C11&lt;=1879,"T2",IF(C11&lt;=1899,"T3",IF(C11&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J11" s="2">
         <v>60471</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f>IF(J11="","",IF(J11="please add","",IF(J11&lt;=10000,"too short",IF(J11&lt;=50000,"short",IF(J11&lt;=100000,"medium",IF(J11&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -2068,18 +2420,18 @@
         <v>1927</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>IF(G12&lt;1949,"ja", IF(G12="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f>IF(C12&lt;=1859,"T1",IF(C12&lt;=1879,"T2",IF(C12&lt;=1899,"T3",IF(C12&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J12" s="2">
         <v>36750</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>IF(J12="","",IF(J12="please add","",IF(J12&lt;=10000,"too short",IF(J12&lt;=50000,"short",IF(J12&lt;=100000,"medium",IF(J12&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -2109,18 +2461,18 @@
         <v>1947</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>IF(G13&lt;1949,"ja", IF(G13="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f>IF(C13&lt;=1859,"T1",IF(C13&lt;=1879,"T2",IF(C13&lt;=1899,"T3",IF(C13&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J13" s="2">
         <v>35213</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f>IF(J13="","",IF(J13="please add","",IF(J13&lt;=10000,"too short",IF(J13&lt;=50000,"short",IF(J13&lt;=100000,"medium",IF(J13&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -2150,18 +2502,18 @@
         <v>1947</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>IF(G14&lt;1949,"ja", IF(G14="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f>IF(C14&lt;=1859,"T1",IF(C14&lt;=1879,"T2",IF(C14&lt;=1899,"T3",IF(C14&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J14" s="2">
         <v>19561</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f>IF(J14="","",IF(J14="please add","",IF(J14&lt;=10000,"too short",IF(J14&lt;=50000,"short",IF(J14&lt;=100000,"medium",IF(J14&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -2191,18 +2543,18 @@
         <v>1947</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>IF(G15&lt;1949,"ja", IF(G15="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f>IF(C15&lt;=1859,"T1",IF(C15&lt;=1879,"T2",IF(C15&lt;=1899,"T3",IF(C15&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J15" s="2">
         <v>38635</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f>IF(J15="","",IF(J15="please add","",IF(J15&lt;=10000,"too short",IF(J15&lt;=50000,"short",IF(J15&lt;=100000,"medium",IF(J15&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -2232,18 +2584,18 @@
         <v>1924</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>IF(G16&lt;1949,"ja", IF(G16="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f>IF(C16&lt;=1859,"T1",IF(C16&lt;=1879,"T2",IF(C16&lt;=1899,"T3",IF(C16&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J16" s="2">
         <v>42646</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>IF(J16="","",IF(J16="please add","",IF(J16&lt;=10000,"too short",IF(J16&lt;=50000,"short",IF(J16&lt;=100000,"medium",IF(J16&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -2276,18 +2628,18 @@
         <v>1924</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>IF(G17&lt;1949,"ja", IF(G17="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f>IF(C17&lt;=1859,"T1",IF(C17&lt;=1879,"T2",IF(C17&lt;=1899,"T3",IF(C17&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J17" s="2">
         <v>48583</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f>IF(J17="","",IF(J17="please add","",IF(J17&lt;=10000,"too short",IF(J17&lt;=50000,"short",IF(J17&lt;=100000,"medium",IF(J17&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -2320,18 +2672,18 @@
         <v>1924</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>IF(G18&lt;1949,"ja", IF(G18="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IF(C18&lt;=1859,"T1",IF(C18&lt;=1879,"T2",IF(C18&lt;=1899,"T3",IF(C18&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>beyond</v>
       </c>
       <c r="J18" s="2">
         <v>110315</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f>IF(J18="","",IF(J18="please add","",IF(J18&lt;=10000,"too short",IF(J18&lt;=50000,"short",IF(J18&lt;=100000,"medium",IF(J18&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>long</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -2364,18 +2716,18 @@
         <v>1924</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>IF(G19&lt;1949,"ja", IF(G19="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f>IF(C19&lt;=1859,"T1",IF(C19&lt;=1879,"T2",IF(C19&lt;=1899,"T3",IF(C19&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J19" s="2">
         <v>67712</v>
       </c>
       <c r="K19" s="2" t="str">
-        <f>IF(J19="","",IF(J19="please add","",IF(J19&lt;=10000,"too short",IF(J19&lt;=50000,"short",IF(J19&lt;=100000,"medium",IF(J19&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -2405,18 +2757,18 @@
         <v>1924</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>IF(G20&lt;1949,"ja", IF(G20="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f>IF(C20&lt;=1859,"T1",IF(C20&lt;=1879,"T2",IF(C20&lt;=1899,"T3",IF(C20&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T3</v>
       </c>
       <c r="J20" s="2">
         <v>102886</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f>IF(J20="","",IF(J20="please add","",IF(J20&lt;=10000,"too short",IF(J20&lt;=50000,"short",IF(J20&lt;=100000,"medium",IF(J20&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>long</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -2446,18 +2798,18 @@
         <v>1924</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>IF(G21&lt;1949,"ja", IF(G21="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f>IF(C21&lt;=1859,"T1",IF(C21&lt;=1879,"T2",IF(C21&lt;=1899,"T3",IF(C21&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J21" s="2">
         <v>36993</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f>IF(J21="","",IF(J21="please add","",IF(J21&lt;=10000,"too short",IF(J21&lt;=50000,"short",IF(J21&lt;=100000,"medium",IF(J21&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -2487,18 +2839,18 @@
         <v>1877</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>IF(G22&lt;1949,"ja", IF(G22="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f>IF(C22&lt;=1859,"T1",IF(C22&lt;=1879,"T2",IF(C22&lt;=1899,"T3",IF(C22&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T2</v>
       </c>
       <c r="J22" s="2">
         <v>37789</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f>IF(J22="","",IF(J22="please add","",IF(J22&lt;=10000,"too short",IF(J22&lt;=50000,"short",IF(J22&lt;=100000,"medium",IF(J22&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -2528,18 +2880,18 @@
         <v>1875</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>IF(G23&lt;1949,"ja", IF(G23="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f>IF(C23&lt;=1859,"T1",IF(C23&lt;=1879,"T2",IF(C23&lt;=1899,"T3",IF(C23&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T2</v>
       </c>
       <c r="J23" s="2">
         <v>22626</v>
       </c>
       <c r="K23" s="2" t="str">
-        <f>IF(J23="","",IF(J23="please add","",IF(J23&lt;=10000,"too short",IF(J23&lt;=50000,"short",IF(J23&lt;=100000,"medium",IF(J23&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -2569,18 +2921,18 @@
         <v>1935</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>IF(G24&lt;1949,"ja", IF(G24="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f>IF(C24&lt;=1859,"T1",IF(C24&lt;=1879,"T2",IF(C24&lt;=1899,"T3",IF(C24&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J24" s="2">
         <v>37551</v>
       </c>
       <c r="K24" s="2" t="str">
-        <f>IF(J24="","",IF(J24="please add","",IF(J24&lt;=10000,"too short",IF(J24&lt;=50000,"short",IF(J24&lt;=100000,"medium",IF(J24&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -2613,18 +2965,18 @@
         <v>1939</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>IF(G25&lt;1949,"ja", IF(G25="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f>IF(C25&lt;=1859,"T1",IF(C25&lt;=1879,"T2",IF(C25&lt;=1899,"T3",IF(C25&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J25" s="2">
         <v>53768</v>
       </c>
       <c r="K25" s="2" t="str">
-        <f>IF(J25="","",IF(J25="please add","",IF(J25&lt;=10000,"too short",IF(J25&lt;=50000,"short",IF(J25&lt;=100000,"medium",IF(J25&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -2657,18 +3009,18 @@
         <v>1939</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>IF(G26&lt;1949,"ja", IF(G26="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f>IF(C26&lt;=1859,"T1",IF(C26&lt;=1879,"T2",IF(C26&lt;=1899,"T3",IF(C26&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J26" s="2">
         <v>61824</v>
       </c>
       <c r="K26" s="2" t="str">
-        <f>IF(J26="","",IF(J26="please add","",IF(J26&lt;=10000,"too short",IF(J26&lt;=50000,"short",IF(J26&lt;=100000,"medium",IF(J26&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -2698,18 +3050,18 @@
         <v>1890</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>IF(G27&lt;1949,"ja", IF(G27="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f>IF(C27&lt;=1859,"T1",IF(C27&lt;=1879,"T2",IF(C27&lt;=1899,"T3",IF(C27&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T2</v>
       </c>
       <c r="J27" s="2">
         <v>22469</v>
       </c>
       <c r="K27" s="2" t="str">
-        <f>IF(J27="","",IF(J27="please add","",IF(J27&lt;=10000,"too short",IF(J27&lt;=50000,"short",IF(J27&lt;=100000,"medium",IF(J27&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>short</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -2745,18 +3097,18 @@
         <v>1942</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>IF(G28&lt;1949,"ja", IF(G28="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f>IF(C28&lt;=1859,"T1",IF(C28&lt;=1879,"T2",IF(C28&lt;=1899,"T3",IF(C28&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>beyond</v>
       </c>
       <c r="J28" s="5">
         <v>111722</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f>IF(J28="","",IF(J28="please add","",IF(J28&lt;=10000,"too short",IF(J28&lt;=50000,"short",IF(J28&lt;=100000,"medium",IF(J28&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>long</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -2789,18 +3141,18 @@
         <v>1942</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f>IF(G29&lt;1949,"ja", IF(G29="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f>IF(C29&lt;=1859,"T1",IF(C29&lt;=1879,"T2",IF(C29&lt;=1899,"T3",IF(C29&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>beyond</v>
       </c>
       <c r="J29" s="5">
         <v>122684</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f>IF(J29="","",IF(J29="please add","",IF(J29&lt;=10000,"too short",IF(J29&lt;=50000,"short",IF(J29&lt;=100000,"medium",IF(J29&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>long</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -2833,18 +3185,18 @@
         <v>1928</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f>IF(G30&lt;1949,"ja", IF(G30="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f>IF(C30&lt;=1859,"T1",IF(C30&lt;=1879,"T2",IF(C30&lt;=1899,"T3",IF(C30&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J30" s="2">
         <v>132322</v>
       </c>
       <c r="K30" s="2" t="str">
-        <f>IF(J30="","",IF(J30="please add","",IF(J30&lt;=10000,"too short",IF(J30&lt;=50000,"short",IF(J30&lt;=100000,"medium",IF(J30&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>long</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -2877,18 +3229,18 @@
         <v>1928</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f>IF(G31&lt;1949,"ja", IF(G31="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f>IF(C31&lt;=1859,"T1",IF(C31&lt;=1879,"T2",IF(C31&lt;=1899,"T3",IF(C31&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J31" s="5">
         <v>150157</v>
       </c>
       <c r="K31" s="2" t="str">
-        <f>IF(J31="","",IF(J31="please add","",IF(J31&lt;=10000,"too short",IF(J31&lt;=50000,"short",IF(J31&lt;=100000,"medium",IF(J31&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>long</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -2921,18 +3273,18 @@
         <v>1928</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f>IF(G32&lt;1949,"ja", IF(G32="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f>IF(C32&lt;=1859,"T1",IF(C32&lt;=1879,"T2",IF(C32&lt;=1899,"T3",IF(C32&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J32" s="5">
         <v>80314</v>
       </c>
       <c r="K32" s="2" t="str">
-        <f>IF(J32="","",IF(J32="please add","",IF(J32&lt;=10000,"too short",IF(J32&lt;=50000,"short",IF(J32&lt;=100000,"medium",IF(J32&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -2965,18 +3317,18 @@
         <v>1928</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f>IF(G33&lt;1949,"ja", IF(G33="please add","","nein"))</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f>IF(C33&lt;=1859,"T1",IF(C33&lt;=1879,"T2",IF(C33&lt;=1899,"T3",IF(C33&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="1"/>
         <v>T4</v>
       </c>
       <c r="J33" s="5">
         <v>79740</v>
       </c>
       <c r="K33" s="2" t="str">
-        <f>IF(J33="","",IF(J33="please add","",IF(J33&lt;=10000,"too short",IF(J33&lt;=50000,"short",IF(J33&lt;=100000,"medium",IF(J33&gt;100000,"long"))))))</f>
+        <f t="shared" si="2"/>
         <v>medium</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -3009,18 +3361,18 @@
         <v>1920</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f>IF(G34&lt;1949,"ja", IF(G34="please add","","nein"))</f>
+        <f t="shared" ref="H34:H65" si="3">IF(G34&lt;1949,"ja", IF(G34="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f>IF(C34&lt;=1859,"T1",IF(C34&lt;=1879,"T2",IF(C34&lt;=1899,"T3",IF(C34&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" ref="I34:I65" si="4">IF(C34&lt;=1859,"T1",IF(C34&lt;=1879,"T2",IF(C34&lt;=1899,"T3",IF(C34&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J34" s="2">
         <v>99777</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f>IF(J34="","",IF(J34="please add","",IF(J34&lt;=10000,"too short",IF(J34&lt;=50000,"short",IF(J34&lt;=100000,"medium",IF(J34&gt;100000,"long"))))))</f>
+        <f t="shared" ref="K34:K65" si="5">IF(J34="","",IF(J34="please add","",IF(J34&lt;=10000,"too short",IF(J34&lt;=50000,"short",IF(J34&lt;=100000,"medium",IF(J34&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -3053,18 +3405,18 @@
         <v>1865</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f>IF(G35&lt;1949,"ja", IF(G35="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f>IF(C35&lt;=1859,"T1",IF(C35&lt;=1879,"T2",IF(C35&lt;=1899,"T3",IF(C35&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T1</v>
       </c>
       <c r="J35" s="2">
         <v>25213</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f>IF(J35="","",IF(J35="please add","",IF(J35&lt;=10000,"too short",IF(J35&lt;=50000,"short",IF(J35&lt;=100000,"medium",IF(J35&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -3094,18 +3446,18 @@
         <v>1968</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f>IF(G36&lt;1949,"ja", IF(G36="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>nein</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f>IF(C36&lt;=1859,"T1",IF(C36&lt;=1879,"T2",IF(C36&lt;=1899,"T3",IF(C36&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J36" s="2">
         <v>37268</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f>IF(J36="","",IF(J36="please add","",IF(J36&lt;=10000,"too short",IF(J36&lt;=50000,"short",IF(J36&lt;=100000,"medium",IF(J36&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -3135,18 +3487,18 @@
         <v>1968</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f>IF(G37&lt;1949,"ja", IF(G37="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>nein</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f>IF(C37&lt;=1859,"T1",IF(C37&lt;=1879,"T2",IF(C37&lt;=1899,"T3",IF(C37&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>beyond</v>
       </c>
       <c r="J37" s="2">
         <v>25126</v>
       </c>
       <c r="K37" s="2" t="str">
-        <f>IF(J37="","",IF(J37="please add","",IF(J37&lt;=10000,"too short",IF(J37&lt;=50000,"short",IF(J37&lt;=100000,"medium",IF(J37&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -3176,18 +3528,18 @@
         <v>1943</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f>IF(G38&lt;1949,"ja", IF(G38="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f>IF(C38&lt;=1859,"T1",IF(C38&lt;=1879,"T2",IF(C38&lt;=1899,"T3",IF(C38&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J38" s="2">
         <v>67741</v>
       </c>
       <c r="K38" s="2" t="str">
-        <f>IF(J38="","",IF(J38="please add","",IF(J38&lt;=10000,"too short",IF(J38&lt;=50000,"short",IF(J38&lt;=100000,"medium",IF(J38&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -3220,18 +3572,18 @@
         <v>1854</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f>IF(G39&lt;1949,"ja", IF(G39="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f>IF(C39&lt;=1859,"T1",IF(C39&lt;=1879,"T2",IF(C39&lt;=1899,"T3",IF(C39&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T1</v>
       </c>
       <c r="J39" s="2">
         <v>118666</v>
       </c>
       <c r="K39" s="2" t="str">
-        <f>IF(J39="","",IF(J39="please add","",IF(J39&lt;=10000,"too short",IF(J39&lt;=50000,"short",IF(J39&lt;=100000,"medium",IF(J39&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>long</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -3264,18 +3616,18 @@
         <v>1854</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f>IF(G40&lt;1949,"ja", IF(G40="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f>IF(C40&lt;=1859,"T1",IF(C40&lt;=1879,"T2",IF(C40&lt;=1899,"T3",IF(C40&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T1</v>
       </c>
       <c r="J40" s="2">
         <v>165536</v>
       </c>
       <c r="K40" s="2" t="str">
-        <f>IF(J40="","",IF(J40="please add","",IF(J40&lt;=10000,"too short",IF(J40&lt;=50000,"short",IF(J40&lt;=100000,"medium",IF(J40&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>long</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -3309,18 +3661,18 @@
         <v>1854</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f>IF(G41&lt;1949,"ja", IF(G41="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f>IF(C41&lt;=1859,"T1",IF(C41&lt;=1879,"T2",IF(C41&lt;=1899,"T3",IF(C41&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T1</v>
       </c>
       <c r="J41" s="7">
         <v>38746</v>
       </c>
       <c r="K41" s="2" t="str">
-        <f>IF(J41="","",IF(J41="please add","",IF(J41&lt;=10000,"too short",IF(J41&lt;=50000,"short",IF(J41&lt;=100000,"medium",IF(J41&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -3356,18 +3708,18 @@
         <v>1854</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f>IF(G42&lt;1949,"ja", IF(G42="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f>IF(C42&lt;=1859,"T1",IF(C42&lt;=1879,"T2",IF(C42&lt;=1899,"T3",IF(C42&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T1</v>
       </c>
       <c r="J42" s="2">
         <v>153761</v>
       </c>
       <c r="K42" s="2" t="str">
-        <f>IF(J42="","",IF(J42="please add","",IF(J42&lt;=10000,"too short",IF(J42&lt;=50000,"short",IF(J42&lt;=100000,"medium",IF(J42&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>long</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -3400,18 +3752,18 @@
         <v>1854</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f>IF(G43&lt;1949,"ja", IF(G43="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f>IF(C43&lt;=1859,"T1",IF(C43&lt;=1879,"T2",IF(C43&lt;=1899,"T3",IF(C43&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T1</v>
       </c>
       <c r="J43" s="2">
         <v>149629</v>
       </c>
       <c r="K43" s="2" t="str">
-        <f>IF(J43="","",IF(J43="please add","",IF(J43&lt;=10000,"too short",IF(J43&lt;=50000,"short",IF(J43&lt;=100000,"medium",IF(J43&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>long</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -3447,18 +3799,18 @@
         <v>1854</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f>IF(G44&lt;1949,"ja", IF(G44="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f>IF(C44&lt;=1859,"T1",IF(C44&lt;=1879,"T2",IF(C44&lt;=1899,"T3",IF(C44&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T1</v>
       </c>
       <c r="J44" s="2">
         <v>299313</v>
       </c>
       <c r="K44" s="2" t="str">
-        <f>IF(J44="","",IF(J44="please add","",IF(J44&lt;=10000,"too short",IF(J44&lt;=50000,"short",IF(J44&lt;=100000,"medium",IF(J44&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>long</v>
       </c>
       <c r="L44" s="4" t="s">
@@ -3491,18 +3843,18 @@
         <v>1925</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f>IF(G45&lt;1949,"ja", IF(G45="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f>IF(C45&lt;=1859,"T1",IF(C45&lt;=1879,"T2",IF(C45&lt;=1899,"T3",IF(C45&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T3</v>
       </c>
       <c r="J45" s="2">
         <v>92531</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f>IF(J45="","",IF(J45="please add","",IF(J45&lt;=10000,"too short",IF(J45&lt;=50000,"short",IF(J45&lt;=100000,"medium",IF(J45&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -3532,18 +3884,18 @@
         <v>1925</v>
       </c>
       <c r="H46" s="2" t="str">
-        <f>IF(G46&lt;1949,"ja", IF(G46="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f>IF(C46&lt;=1859,"T1",IF(C46&lt;=1879,"T2",IF(C46&lt;=1899,"T3",IF(C46&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J46" s="5">
         <v>73487</v>
       </c>
       <c r="K46" s="2" t="str">
-        <f>IF(J46="","",IF(J46="please add","",IF(J46&lt;=10000,"too short",IF(J46&lt;=50000,"short",IF(J46&lt;=100000,"medium",IF(J46&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -3576,18 +3928,18 @@
         <v>1925</v>
       </c>
       <c r="H47" s="2" t="str">
-        <f>IF(G47&lt;1949,"ja", IF(G47="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I47" s="2" t="str">
-        <f>IF(C47&lt;=1859,"T1",IF(C47&lt;=1879,"T2",IF(C47&lt;=1899,"T3",IF(C47&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J47" s="5">
         <v>54068</v>
       </c>
       <c r="K47" s="2" t="str">
-        <f>IF(J47="","",IF(J47="please add","",IF(J47&lt;=10000,"too short",IF(J47&lt;=50000,"short",IF(J47&lt;=100000,"medium",IF(J47&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -3620,18 +3972,18 @@
         <v>1908</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f>IF(G48&lt;1949,"ja", IF(G48="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f>IF(C48&lt;=1859,"T1",IF(C48&lt;=1879,"T2",IF(C48&lt;=1899,"T3",IF(C48&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J48" s="2">
         <v>53870</v>
       </c>
       <c r="K48" s="2" t="str">
-        <f>IF(J48="","",IF(J48="please add","",IF(J48&lt;=10000,"too short",IF(J48&lt;=50000,"short",IF(J48&lt;=100000,"medium",IF(J48&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -3661,18 +4013,18 @@
         <v>1908</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f>IF(G49&lt;1949,"ja", IF(G49="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f>IF(C49&lt;=1859,"T1",IF(C49&lt;=1879,"T2",IF(C49&lt;=1899,"T3",IF(C49&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T2</v>
       </c>
       <c r="J49" s="2">
         <v>39066</v>
       </c>
       <c r="K49" s="2" t="str">
-        <f>IF(J49="","",IF(J49="please add","",IF(J49&lt;=10000,"too short",IF(J49&lt;=50000,"short",IF(J49&lt;=100000,"medium",IF(J49&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -3702,18 +4054,18 @@
         <v>1937</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f>IF(G50&lt;1949,"ja", IF(G50="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f>IF(C50&lt;=1859,"T1",IF(C50&lt;=1879,"T2",IF(C50&lt;=1899,"T3",IF(C50&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J50" s="2">
         <v>67609</v>
       </c>
       <c r="K50" s="2" t="str">
-        <f>IF(J50="","",IF(J50="please add","",IF(J50&lt;=10000,"too short",IF(J50&lt;=50000,"short",IF(J50&lt;=100000,"medium",IF(J50&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -3746,18 +4098,18 @@
         <v>1925</v>
       </c>
       <c r="H51" s="2" t="str">
-        <f>IF(G51&lt;1949,"ja", IF(G51="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f>IF(C51&lt;=1859,"T1",IF(C51&lt;=1879,"T2",IF(C51&lt;=1899,"T3",IF(C51&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J51" s="2">
         <v>52966</v>
       </c>
       <c r="K51" s="2" t="str">
-        <f>IF(J51="","",IF(J51="please add","",IF(J51&lt;=10000,"too short",IF(J51&lt;=50000,"short",IF(J51&lt;=100000,"medium",IF(J51&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L51" s="4" t="s">
@@ -3787,18 +4139,18 @@
         <v>1890</v>
       </c>
       <c r="H52" s="2" t="str">
-        <f>IF(G52&lt;1949,"ja", IF(G52="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f>IF(C52&lt;=1859,"T1",IF(C52&lt;=1879,"T2",IF(C52&lt;=1899,"T3",IF(C52&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T3</v>
       </c>
       <c r="J52" s="5">
         <v>88800</v>
       </c>
       <c r="K52" s="2" t="str">
-        <f>IF(J52="","",IF(J52="please add","",IF(J52&lt;=10000,"too short",IF(J52&lt;=50000,"short",IF(J52&lt;=100000,"medium",IF(J52&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L52" s="4" t="s">
@@ -3831,18 +4183,18 @@
         <v>1890</v>
       </c>
       <c r="H53" s="2" t="str">
-        <f>IF(G53&lt;1949,"ja", IF(G53="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f>IF(C53&lt;=1859,"T1",IF(C53&lt;=1879,"T2",IF(C53&lt;=1899,"T3",IF(C53&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T2</v>
       </c>
       <c r="J53" s="2">
         <v>90234</v>
       </c>
       <c r="K53" s="2" t="str">
-        <f>IF(J53="","",IF(J53="please add","",IF(J53&lt;=10000,"too short",IF(J53&lt;=50000,"short",IF(J53&lt;=100000,"medium",IF(J53&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L53" s="4" t="s">
@@ -3875,18 +4227,18 @@
         <v>1890</v>
       </c>
       <c r="H54" s="2" t="str">
-        <f>IF(G54&lt;1949,"ja", IF(G54="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f>IF(C54&lt;=1859,"T1",IF(C54&lt;=1879,"T2",IF(C54&lt;=1899,"T3",IF(C54&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T3</v>
       </c>
       <c r="J54" s="5">
         <v>94405</v>
       </c>
       <c r="K54" s="2" t="str">
-        <f>IF(J54="","",IF(J54="please add","",IF(J54&lt;=10000,"too short",IF(J54&lt;=50000,"short",IF(J54&lt;=100000,"medium",IF(J54&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L54" s="4" t="s">
@@ -3922,18 +4274,18 @@
         <v>1890</v>
       </c>
       <c r="H55" s="2" t="str">
-        <f>IF(G55&lt;1949,"ja", IF(G55="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f>IF(C55&lt;=1859,"T1",IF(C55&lt;=1879,"T2",IF(C55&lt;=1899,"T3",IF(C55&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T2</v>
       </c>
       <c r="J55" s="2">
         <v>25050</v>
       </c>
       <c r="K55" s="2" t="str">
-        <f>IF(J55="","",IF(J55="please add","",IF(J55&lt;=10000,"too short",IF(J55&lt;=50000,"short",IF(J55&lt;=100000,"medium",IF(J55&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L55" s="4" t="s">
@@ -3966,18 +4318,18 @@
         <v>1890</v>
       </c>
       <c r="H56" s="2" t="str">
-        <f>IF(G56&lt;1949,"ja", IF(G56="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f>IF(C56&lt;=1859,"T1",IF(C56&lt;=1879,"T2",IF(C56&lt;=1899,"T3",IF(C56&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T2</v>
       </c>
       <c r="J56" s="2">
         <v>111863</v>
       </c>
       <c r="K56" s="2" t="str">
-        <f>IF(J56="","",IF(J56="please add","",IF(J56&lt;=10000,"too short",IF(J56&lt;=50000,"short",IF(J56&lt;=100000,"medium",IF(J56&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>long</v>
       </c>
       <c r="L56" s="4" t="s">
@@ -4007,18 +4359,18 @@
         <v>1890</v>
       </c>
       <c r="H57" s="2" t="str">
-        <f>IF(G57&lt;1949,"ja", IF(G57="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I57" s="2" t="str">
-        <f>IF(C57&lt;=1859,"T1",IF(C57&lt;=1879,"T2",IF(C57&lt;=1899,"T3",IF(C57&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T3</v>
       </c>
       <c r="J57" s="5">
         <v>30767</v>
       </c>
       <c r="K57" s="2" t="str">
-        <f>IF(J57="","",IF(J57="please add","",IF(J57&lt;=10000,"too short",IF(J57&lt;=50000,"short",IF(J57&lt;=100000,"medium",IF(J57&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L57" s="4" t="s">
@@ -4048,18 +4400,18 @@
         <v>1933</v>
       </c>
       <c r="H58" s="2" t="str">
-        <f>IF(G58&lt;1949,"ja", IF(G58="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f>IF(C58&lt;=1859,"T1",IF(C58&lt;=1879,"T2",IF(C58&lt;=1899,"T3",IF(C58&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J58" s="2">
         <v>33923</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f>IF(J58="","",IF(J58="please add","",IF(J58&lt;=10000,"too short",IF(J58&lt;=50000,"short",IF(J58&lt;=100000,"medium",IF(J58&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L58" s="4" t="s">
@@ -4092,18 +4444,18 @@
         <v>1877</v>
       </c>
       <c r="H59" s="2" t="str">
-        <f>IF(G59&lt;1949,"ja", IF(G59="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f>IF(C59&lt;=1859,"T1",IF(C59&lt;=1879,"T2",IF(C59&lt;=1899,"T3",IF(C59&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T2</v>
       </c>
       <c r="J59" s="2">
         <v>35343</v>
       </c>
       <c r="K59" s="2" t="str">
-        <f>IF(J59="","",IF(J59="please add","",IF(J59&lt;=10000,"too short",IF(J59&lt;=50000,"short",IF(J59&lt;=100000,"medium",IF(J59&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L59" s="4" t="s">
@@ -4136,18 +4488,18 @@
         <v>1933</v>
       </c>
       <c r="H60" s="2" t="str">
-        <f>IF(G60&lt;1949,"ja", IF(G60="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f>IF(C60&lt;=1859,"T1",IF(C60&lt;=1879,"T2",IF(C60&lt;=1899,"T3",IF(C60&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J60" s="2">
         <v>112581</v>
       </c>
       <c r="K60" s="2" t="str">
-        <f>IF(J60="","",IF(J60="please add","",IF(J60&lt;=10000,"too short",IF(J60&lt;=50000,"short",IF(J60&lt;=100000,"medium",IF(J60&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>long</v>
       </c>
       <c r="L60" s="4" t="s">
@@ -4180,18 +4532,18 @@
         <v>1933</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f>IF(G61&lt;1949,"ja", IF(G61="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f>IF(C61&lt;=1859,"T1",IF(C61&lt;=1879,"T2",IF(C61&lt;=1899,"T3",IF(C61&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T4</v>
       </c>
       <c r="J61" s="5">
         <v>52470</v>
       </c>
       <c r="K61" s="2" t="str">
-        <f>IF(J61="","",IF(J61="please add","",IF(J61&lt;=10000,"too short",IF(J61&lt;=50000,"short",IF(J61&lt;=100000,"medium",IF(J61&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L61" s="4" t="s">
@@ -4224,18 +4576,18 @@
         <v>1867</v>
       </c>
       <c r="H62" s="2" t="str">
-        <f>IF(G62&lt;1949,"ja", IF(G62="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f>IF(C62&lt;=1859,"T1",IF(C62&lt;=1879,"T2",IF(C62&lt;=1899,"T3",IF(C62&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T2</v>
       </c>
       <c r="J62" s="2">
         <v>44241</v>
       </c>
       <c r="K62" s="2" t="str">
-        <f>IF(J62="","",IF(J62="please add","",IF(J62&lt;=10000,"too short",IF(J62&lt;=50000,"short",IF(J62&lt;=100000,"medium",IF(J62&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L62" s="4" t="s">
@@ -4268,18 +4620,18 @@
         <v>1867</v>
       </c>
       <c r="H63" s="2" t="str">
-        <f>IF(G63&lt;1949,"ja", IF(G63="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f>IF(C63&lt;=1859,"T1",IF(C63&lt;=1879,"T2",IF(C63&lt;=1899,"T3",IF(C63&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T2</v>
       </c>
       <c r="J63" s="2">
         <v>83611</v>
       </c>
       <c r="K63" s="2" t="str">
-        <f>IF(J63="","",IF(J63="please add","",IF(J63&lt;=10000,"too short",IF(J63&lt;=50000,"short",IF(J63&lt;=100000,"medium",IF(J63&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>medium</v>
       </c>
       <c r="L63" s="4" t="s">
@@ -4309,18 +4661,18 @@
         <v>1898</v>
       </c>
       <c r="H64" s="2" t="str">
-        <f>IF(G64&lt;1949,"ja", IF(G64="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f>IF(C64&lt;=1859,"T1",IF(C64&lt;=1879,"T2",IF(C64&lt;=1899,"T3",IF(C64&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T3</v>
       </c>
       <c r="J64" s="5">
         <v>41845</v>
       </c>
       <c r="K64" s="2" t="str">
-        <f>IF(J64="","",IF(J64="please add","",IF(J64&lt;=10000,"too short",IF(J64&lt;=50000,"short",IF(J64&lt;=100000,"medium",IF(J64&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L64" s="4" t="s">
@@ -4353,18 +4705,18 @@
         <v>1898</v>
       </c>
       <c r="H65" s="2" t="str">
-        <f>IF(G65&lt;1949,"ja", IF(G65="please add","","nein"))</f>
+        <f t="shared" si="3"/>
         <v>ja</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f>IF(C65&lt;=1859,"T1",IF(C65&lt;=1879,"T2",IF(C65&lt;=1899,"T3",IF(C65&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="4"/>
         <v>T3</v>
       </c>
       <c r="J65" s="5">
         <v>27826</v>
       </c>
       <c r="K65" s="2" t="str">
-        <f>IF(J65="","",IF(J65="please add","",IF(J65&lt;=10000,"too short",IF(J65&lt;=50000,"short",IF(J65&lt;=100000,"medium",IF(J65&gt;100000,"long"))))))</f>
+        <f t="shared" si="5"/>
         <v>short</v>
       </c>
       <c r="L65" s="4" t="s">
@@ -4394,18 +4746,18 @@
         <v>1898</v>
       </c>
       <c r="H66" s="2" t="str">
-        <f>IF(G66&lt;1949,"ja", IF(G66="please add","","nein"))</f>
+        <f t="shared" ref="H66:H97" si="6">IF(G66&lt;1949,"ja", IF(G66="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f>IF(C66&lt;=1859,"T1",IF(C66&lt;=1879,"T2",IF(C66&lt;=1899,"T3",IF(C66&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" ref="I66:I97" si="7">IF(C66&lt;=1859,"T1",IF(C66&lt;=1879,"T2",IF(C66&lt;=1899,"T3",IF(C66&lt;=1920,"T4","beyond"))))</f>
         <v>T3</v>
       </c>
       <c r="J66" s="5">
         <v>22729</v>
       </c>
       <c r="K66" s="2" t="str">
-        <f>IF(J66="","",IF(J66="please add","",IF(J66&lt;=10000,"too short",IF(J66&lt;=50000,"short",IF(J66&lt;=100000,"medium",IF(J66&gt;100000,"long"))))))</f>
+        <f t="shared" ref="K66:K97" si="8">IF(J66="","",IF(J66="please add","",IF(J66&lt;=10000,"too short",IF(J66&lt;=50000,"short",IF(J66&lt;=100000,"medium",IF(J66&gt;100000,"long"))))))</f>
         <v>short</v>
       </c>
       <c r="L66" s="4" t="s">
@@ -4441,18 +4793,18 @@
         <v>1898</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f>IF(G67&lt;1949,"ja", IF(G67="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f>IF(C67&lt;=1859,"T1",IF(C67&lt;=1879,"T2",IF(C67&lt;=1899,"T3",IF(C67&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="J67" s="2">
         <v>72790</v>
       </c>
       <c r="K67" s="2" t="str">
-        <f>IF(J67="","",IF(J67="please add","",IF(J67&lt;=10000,"too short",IF(J67&lt;=50000,"short",IF(J67&lt;=100000,"medium",IF(J67&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L67" s="4" t="s">
@@ -4485,18 +4837,18 @@
         <v>1969</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f>IF(G68&lt;1949,"ja", IF(G68="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>nein</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f>IF(C68&lt;=1859,"T1",IF(C68&lt;=1879,"T2",IF(C68&lt;=1899,"T3",IF(C68&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J68" s="5">
         <v>68956</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f>IF(J68="","",IF(J68="please add","",IF(J68&lt;=10000,"too short",IF(J68&lt;=50000,"short",IF(J68&lt;=100000,"medium",IF(J68&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L68" s="4" t="s">
@@ -4526,18 +4878,18 @@
         <v>1909</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f>IF(G69&lt;1949,"ja", IF(G69="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I69" s="2" t="str">
-        <f>IF(C69&lt;=1859,"T1",IF(C69&lt;=1879,"T2",IF(C69&lt;=1899,"T3",IF(C69&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J69" s="2">
         <v>22754</v>
       </c>
       <c r="K69" s="2" t="str">
-        <f>IF(J69="","",IF(J69="please add","",IF(J69&lt;=10000,"too short",IF(J69&lt;=50000,"short",IF(J69&lt;=100000,"medium",IF(J69&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L69" s="4" t="s">
@@ -4567,18 +4919,18 @@
         <v>1929</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f>IF(G70&lt;1949,"ja", IF(G70="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f>IF(C70&lt;=1859,"T1",IF(C70&lt;=1879,"T2",IF(C70&lt;=1899,"T3",IF(C70&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J70" s="2">
         <v>108738</v>
       </c>
       <c r="K70" s="2" t="str">
-        <f>IF(J70="","",IF(J70="please add","",IF(J70&lt;=10000,"too short",IF(J70&lt;=50000,"short",IF(J70&lt;=100000,"medium",IF(J70&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>long</v>
       </c>
       <c r="L70" s="4" t="s">
@@ -4608,18 +4960,18 @@
         <v>1929</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f>IF(G71&lt;1949,"ja", IF(G71="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f>IF(C71&lt;=1859,"T1",IF(C71&lt;=1879,"T2",IF(C71&lt;=1899,"T3",IF(C71&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J71" s="2">
         <v>208934</v>
       </c>
       <c r="K71" s="2" t="str">
-        <f>IF(J71="","",IF(J71="please add","",IF(J71&lt;=10000,"too short",IF(J71&lt;=50000,"short",IF(J71&lt;=100000,"medium",IF(J71&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>long</v>
       </c>
       <c r="L71" s="4" t="s">
@@ -4655,18 +5007,18 @@
         <v>1890</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f>IF(G72&lt;1949,"ja", IF(G72="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f>IF(C72&lt;=1859,"T1",IF(C72&lt;=1879,"T2",IF(C72&lt;=1899,"T3",IF(C72&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J72" s="5">
         <v>75238</v>
       </c>
       <c r="K72" s="2" t="str">
-        <f>IF(J72="","",IF(J72="please add","",IF(J72&lt;=10000,"too short",IF(J72&lt;=50000,"short",IF(J72&lt;=100000,"medium",IF(J72&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L72" s="4" t="s">
@@ -4699,18 +5051,18 @@
         <v>1944</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f>IF(G73&lt;1949,"ja", IF(G73="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I73" s="2" t="str">
-        <f>IF(C73&lt;=1859,"T1",IF(C73&lt;=1879,"T2",IF(C73&lt;=1899,"T3",IF(C73&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J73" s="2">
         <v>72606</v>
       </c>
       <c r="K73" s="2" t="str">
-        <f>IF(J73="","",IF(J73="please add","",IF(J73&lt;=10000,"too short",IF(J73&lt;=50000,"short",IF(J73&lt;=100000,"medium",IF(J73&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L73" s="4" t="s">
@@ -4740,18 +5092,18 @@
         <v>1944</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f>IF(G74&lt;1949,"ja", IF(G74="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f>IF(C74&lt;=1859,"T1",IF(C74&lt;=1879,"T2",IF(C74&lt;=1899,"T3",IF(C74&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J74" s="2">
         <v>54604</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f>IF(J74="","",IF(J74="please add","",IF(J74&lt;=10000,"too short",IF(J74&lt;=50000,"short",IF(J74&lt;=100000,"medium",IF(J74&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L74" s="4" t="s">
@@ -4787,18 +5139,18 @@
         <v>1944</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f>IF(G75&lt;1949,"ja", IF(G75="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I75" s="2" t="str">
-        <f>IF(C75&lt;=1859,"T1",IF(C75&lt;=1879,"T2",IF(C75&lt;=1899,"T3",IF(C75&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J75" s="2">
         <v>34368</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f>IF(J75="","",IF(J75="please add","",IF(J75&lt;=10000,"too short",IF(J75&lt;=50000,"short",IF(J75&lt;=100000,"medium",IF(J75&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L75" s="4" t="s">
@@ -4828,18 +5180,18 @@
         <v>1944</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f>IF(G76&lt;1949,"ja", IF(G76="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f>IF(C76&lt;=1859,"T1",IF(C76&lt;=1879,"T2",IF(C76&lt;=1899,"T3",IF(C76&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J76" s="2">
         <v>38505</v>
       </c>
       <c r="K76" s="2" t="str">
-        <f>IF(J76="","",IF(J76="please add","",IF(J76&lt;=10000,"too short",IF(J76&lt;=50000,"short",IF(J76&lt;=100000,"medium",IF(J76&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L76" s="4" t="s">
@@ -4872,18 +5224,18 @@
         <v>1944</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f>IF(G77&lt;1949,"ja", IF(G77="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f>IF(C77&lt;=1859,"T1",IF(C77&lt;=1879,"T2",IF(C77&lt;=1899,"T3",IF(C77&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J77" s="2">
         <v>47747</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f>IF(J77="","",IF(J77="please add","",IF(J77&lt;=10000,"too short",IF(J77&lt;=50000,"short",IF(J77&lt;=100000,"medium",IF(J77&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L77" s="4" t="s">
@@ -4919,18 +5271,18 @@
         <v>1944</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f>IF(G78&lt;1949,"ja", IF(G78="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I78" s="2" t="str">
-        <f>IF(C78&lt;=1859,"T1",IF(C78&lt;=1879,"T2",IF(C78&lt;=1899,"T3",IF(C78&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J78" s="2">
         <v>90029</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f>IF(J78="","",IF(J78="please add","",IF(J78&lt;=10000,"too short",IF(J78&lt;=50000,"short",IF(J78&lt;=100000,"medium",IF(J78&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L78" s="4" t="s">
@@ -4960,18 +5312,18 @@
         <v>1915</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f>IF(G79&lt;1949,"ja", IF(G79="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I79" s="2" t="str">
-        <f>IF(C79&lt;=1859,"T1",IF(C79&lt;=1879,"T2",IF(C79&lt;=1899,"T3",IF(C79&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J79" s="2">
         <v>30070</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f>IF(J79="","",IF(J79="please add","",IF(J79&lt;=10000,"too short",IF(J79&lt;=50000,"short",IF(J79&lt;=100000,"medium",IF(J79&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L79" s="4" t="s">
@@ -5004,18 +5356,18 @@
         <v>1915</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f>IF(G80&lt;1949,"ja", IF(G80="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I80" s="2" t="str">
-        <f>IF(C80&lt;=1859,"T1",IF(C80&lt;=1879,"T2",IF(C80&lt;=1899,"T3",IF(C80&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J80" s="2">
         <v>37096</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f>IF(J80="","",IF(J80="please add","",IF(J80&lt;=10000,"too short",IF(J80&lt;=50000,"short",IF(J80&lt;=100000,"medium",IF(J80&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L80" s="4" t="s">
@@ -5045,18 +5397,18 @@
         <v>1945</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f>IF(G81&lt;1949,"ja", IF(G81="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I81" s="2" t="str">
-        <f>IF(C81&lt;=1859,"T1",IF(C81&lt;=1879,"T2",IF(C81&lt;=1899,"T3",IF(C81&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J81" s="2">
         <v>66783</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f>IF(J81="","",IF(J81="please add","",IF(J81&lt;=10000,"too short",IF(J81&lt;=50000,"short",IF(J81&lt;=100000,"medium",IF(J81&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L81" s="4" t="s">
@@ -5086,18 +5438,18 @@
         <v>1945</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f>IF(G82&lt;1949,"ja", IF(G82="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f>IF(C82&lt;=1859,"T1",IF(C82&lt;=1879,"T2",IF(C82&lt;=1899,"T3",IF(C82&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J82" s="2">
         <v>38298</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f>IF(J82="","",IF(J82="please add","",IF(J82&lt;=10000,"too short",IF(J82&lt;=50000,"short",IF(J82&lt;=100000,"medium",IF(J82&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L82" s="4" t="s">
@@ -5127,18 +5479,18 @@
         <v>1945</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f>IF(G83&lt;1949,"ja", IF(G83="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I83" s="2" t="str">
-        <f>IF(C83&lt;=1859,"T1",IF(C83&lt;=1879,"T2",IF(C83&lt;=1899,"T3",IF(C83&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J83" s="2">
         <v>3497</v>
       </c>
       <c r="K83" s="2" t="str">
-        <f>IF(J83="","",IF(J83="please add","",IF(J83&lt;=10000,"too short",IF(J83&lt;=50000,"short",IF(J83&lt;=100000,"medium",IF(J83&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>too short</v>
       </c>
       <c r="L83" s="4" t="s">
@@ -5171,18 +5523,18 @@
         <v>1947</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f>IF(G84&lt;1949,"ja", IF(G84="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I84" s="2" t="str">
-        <f>IF(C84&lt;=1859,"T1",IF(C84&lt;=1879,"T2",IF(C84&lt;=1899,"T3",IF(C84&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J84" s="5">
         <v>58249</v>
       </c>
       <c r="K84" s="2" t="str">
-        <f>IF(J84="","",IF(J84="please add","",IF(J84&lt;=10000,"too short",IF(J84&lt;=50000,"short",IF(J84&lt;=100000,"medium",IF(J84&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L84" s="4" t="s">
@@ -5215,18 +5567,18 @@
         <v>1947</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f>IF(G85&lt;1949,"ja", IF(G85="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I85" s="2" t="str">
-        <f>IF(C85&lt;=1859,"T1",IF(C85&lt;=1879,"T2",IF(C85&lt;=1899,"T3",IF(C85&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J85" s="2">
         <v>35145</v>
       </c>
       <c r="K85" s="2" t="str">
-        <f>IF(J85="","",IF(J85="please add","",IF(J85&lt;=10000,"too short",IF(J85&lt;=50000,"short",IF(J85&lt;=100000,"medium",IF(J85&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L85" s="4" t="s">
@@ -5259,18 +5611,18 @@
         <v>1947</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f>IF(G86&lt;1949,"ja", IF(G86="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I86" s="2" t="str">
-        <f>IF(C86&lt;=1859,"T1",IF(C86&lt;=1879,"T2",IF(C86&lt;=1899,"T3",IF(C86&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J86" s="5">
         <v>60972</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f>IF(J86="","",IF(J86="please add","",IF(J86&lt;=10000,"too short",IF(J86&lt;=50000,"short",IF(J86&lt;=100000,"medium",IF(J86&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L86" s="4" t="s">
@@ -5300,18 +5652,18 @@
         <v>1947</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f>IF(G87&lt;1949,"ja", IF(G87="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I87" s="2" t="str">
-        <f>IF(C87&lt;=1859,"T1",IF(C87&lt;=1879,"T2",IF(C87&lt;=1899,"T3",IF(C87&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J87" s="5">
         <v>60599</v>
       </c>
       <c r="K87" s="2" t="str">
-        <f>IF(J87="","",IF(J87="please add","",IF(J87&lt;=10000,"too short",IF(J87&lt;=50000,"short",IF(J87&lt;=100000,"medium",IF(J87&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L87" s="4" t="s">
@@ -5341,18 +5693,18 @@
         <v>1924</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f>IF(G88&lt;1949,"ja", IF(G88="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I88" s="2" t="str">
-        <f>IF(C88&lt;=1859,"T1",IF(C88&lt;=1879,"T2",IF(C88&lt;=1899,"T3",IF(C88&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J88" s="5">
         <v>9015</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f>IF(J88="","",IF(J88="please add","",IF(J88&lt;=10000,"too short",IF(J88&lt;=50000,"short",IF(J88&lt;=100000,"medium",IF(J88&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>too short</v>
       </c>
       <c r="L88" s="4" t="s">
@@ -5385,18 +5737,18 @@
         <v>1924</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f>IF(G89&lt;1949,"ja", IF(G89="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f>IF(C89&lt;=1859,"T1",IF(C89&lt;=1879,"T2",IF(C89&lt;=1899,"T3",IF(C89&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J89" s="5">
         <v>47104</v>
       </c>
       <c r="K89" s="2" t="str">
-        <f>IF(J89="","",IF(J89="please add","",IF(J89&lt;=10000,"too short",IF(J89&lt;=50000,"short",IF(J89&lt;=100000,"medium",IF(J89&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L89" s="4" t="s">
@@ -5426,18 +5778,18 @@
         <v>1901</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f>IF(G90&lt;1949,"ja", IF(G90="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I90" s="2" t="str">
-        <f>IF(C90&lt;=1859,"T1",IF(C90&lt;=1879,"T2",IF(C90&lt;=1899,"T3",IF(C90&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J90" s="5">
         <v>60869</v>
       </c>
       <c r="K90" s="2" t="str">
-        <f>IF(J90="","",IF(J90="please add","",IF(J90&lt;=10000,"too short",IF(J90&lt;=50000,"short",IF(J90&lt;=100000,"medium",IF(J90&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L90" s="4" t="s">
@@ -5467,18 +5819,18 @@
         <v>1901</v>
       </c>
       <c r="H91" s="2" t="str">
-        <f>IF(G91&lt;1949,"ja", IF(G91="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I91" s="2" t="str">
-        <f>IF(C91&lt;=1859,"T1",IF(C91&lt;=1879,"T2",IF(C91&lt;=1899,"T3",IF(C91&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J91" s="5">
         <v>25970</v>
       </c>
       <c r="K91" s="2" t="str">
-        <f>IF(J91="","",IF(J91="please add","",IF(J91&lt;=10000,"too short",IF(J91&lt;=50000,"short",IF(J91&lt;=100000,"medium",IF(J91&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L91" s="4" t="s">
@@ -5508,18 +5860,18 @@
         <v>1901</v>
       </c>
       <c r="H92" s="2" t="str">
-        <f>IF(G92&lt;1949,"ja", IF(G92="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I92" s="2" t="str">
-        <f>IF(C92&lt;=1859,"T1",IF(C92&lt;=1879,"T2",IF(C92&lt;=1899,"T3",IF(C92&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="J92" s="2">
         <v>46112</v>
       </c>
       <c r="K92" s="2" t="str">
-        <f>IF(J92="","",IF(J92="please add","",IF(J92&lt;=10000,"too short",IF(J92&lt;=50000,"short",IF(J92&lt;=100000,"medium",IF(J92&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L92" s="4" t="s">
@@ -5552,18 +5904,18 @@
         <v>1901</v>
       </c>
       <c r="H93" s="2" t="str">
-        <f>IF(G93&lt;1949,"ja", IF(G93="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I93" s="2" t="str">
-        <f>IF(C93&lt;=1859,"T1",IF(C93&lt;=1879,"T2",IF(C93&lt;=1899,"T3",IF(C93&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J93" s="5">
         <v>69653</v>
       </c>
       <c r="K93" s="2" t="str">
-        <f>IF(J93="","",IF(J93="please add","",IF(J93&lt;=10000,"too short",IF(J93&lt;=50000,"short",IF(J93&lt;=100000,"medium",IF(J93&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L93" s="4" t="s">
@@ -5596,18 +5948,18 @@
         <v>1934</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f>IF(G94&lt;1949,"ja", IF(G94="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I94" s="2" t="str">
-        <f>IF(C94&lt;=1859,"T1",IF(C94&lt;=1879,"T2",IF(C94&lt;=1899,"T3",IF(C94&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J94" s="2">
         <v>70121</v>
       </c>
       <c r="K94" s="2" t="str">
-        <f>IF(J94="","",IF(J94="please add","",IF(J94&lt;=10000,"too short",IF(J94&lt;=50000,"short",IF(J94&lt;=100000,"medium",IF(J94&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L94" s="4" t="s">
@@ -5640,18 +5992,18 @@
         <v>1934</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f>IF(G95&lt;1949,"ja", IF(G95="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I95" s="2" t="str">
-        <f>IF(C95&lt;=1859,"T1",IF(C95&lt;=1879,"T2",IF(C95&lt;=1899,"T3",IF(C95&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J95" s="2">
         <v>69792</v>
       </c>
       <c r="K95" s="2" t="str">
-        <f>IF(J95="","",IF(J95="please add","",IF(J95&lt;=10000,"too short",IF(J95&lt;=50000,"short",IF(J95&lt;=100000,"medium",IF(J95&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L95" s="4" t="s">
@@ -5684,18 +6036,18 @@
         <v>1934</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f>IF(G96&lt;1949,"ja", IF(G96="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I96" s="2" t="str">
-        <f>IF(C96&lt;=1859,"T1",IF(C96&lt;=1879,"T2",IF(C96&lt;=1899,"T3",IF(C96&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T4</v>
       </c>
       <c r="J96" s="2">
         <v>87950</v>
       </c>
       <c r="K96" s="2" t="str">
-        <f>IF(J96="","",IF(J96="please add","",IF(J96&lt;=10000,"too short",IF(J96&lt;=50000,"short",IF(J96&lt;=100000,"medium",IF(J96&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>medium</v>
       </c>
       <c r="L96" s="4" t="s">
@@ -5728,18 +6080,18 @@
         <v>1886</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f>IF(G97&lt;1949,"ja", IF(G97="please add","","nein"))</f>
+        <f t="shared" si="6"/>
         <v>ja</v>
       </c>
       <c r="I97" s="2" t="str">
-        <f>IF(C97&lt;=1859,"T1",IF(C97&lt;=1879,"T2",IF(C97&lt;=1899,"T3",IF(C97&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="J97" s="2">
         <v>12710</v>
       </c>
       <c r="K97" s="2" t="str">
-        <f>IF(J97="","",IF(J97="please add","",IF(J97&lt;=10000,"too short",IF(J97&lt;=50000,"short",IF(J97&lt;=100000,"medium",IF(J97&gt;100000,"long"))))))</f>
+        <f t="shared" si="8"/>
         <v>short</v>
       </c>
       <c r="L97" s="4" t="s">
@@ -5772,18 +6124,18 @@
         <v>1947</v>
       </c>
       <c r="H98" s="2" t="str">
-        <f>IF(G98&lt;1949,"ja", IF(G98="please add","","nein"))</f>
+        <f t="shared" ref="H98:H129" si="9">IF(G98&lt;1949,"ja", IF(G98="please add","","nein"))</f>
         <v>ja</v>
       </c>
       <c r="I98" s="2" t="str">
-        <f>IF(C98&lt;=1859,"T1",IF(C98&lt;=1879,"T2",IF(C98&lt;=1899,"T3",IF(C98&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" ref="I98:I110" si="10">IF(C98&lt;=1859,"T1",IF(C98&lt;=1879,"T2",IF(C98&lt;=1899,"T3",IF(C98&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
       <c r="J98" s="5">
         <v>97111</v>
       </c>
       <c r="K98" s="2" t="str">
-        <f>IF(J98="","",IF(J98="please add","",IF(J98&lt;=10000,"too short",IF(J98&lt;=50000,"short",IF(J98&lt;=100000,"medium",IF(J98&gt;100000,"long"))))))</f>
+        <f t="shared" ref="K98:K129" si="11">IF(J98="","",IF(J98="please add","",IF(J98&lt;=10000,"too short",IF(J98&lt;=50000,"short",IF(J98&lt;=100000,"medium",IF(J98&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L98" s="4" t="s">
@@ -5816,18 +6168,18 @@
         <v>1939</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f>IF(G99&lt;1949,"ja", IF(G99="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I99" s="2" t="str">
-        <f>IF(C99&lt;=1859,"T1",IF(C99&lt;=1879,"T2",IF(C99&lt;=1899,"T3",IF(C99&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J99" s="2">
         <v>12497</v>
       </c>
       <c r="K99" s="2" t="str">
-        <f>IF(J99="","",IF(J99="please add","",IF(J99&lt;=10000,"too short",IF(J99&lt;=50000,"short",IF(J99&lt;=100000,"medium",IF(J99&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>short</v>
       </c>
       <c r="L99" s="4" t="s">
@@ -5857,18 +6209,18 @@
         <v>1939</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f>IF(G100&lt;1949,"ja", IF(G100="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I100" s="2" t="str">
-        <f>IF(C100&lt;=1859,"T1",IF(C100&lt;=1879,"T2",IF(C100&lt;=1899,"T3",IF(C100&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J100" s="2">
         <v>114532</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f>IF(J100="","",IF(J100="please add","",IF(J100&lt;=10000,"too short",IF(J100&lt;=50000,"short",IF(J100&lt;=100000,"medium",IF(J100&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>long</v>
       </c>
       <c r="L100" s="4" t="s">
@@ -5901,18 +6253,18 @@
         <v>1939</v>
       </c>
       <c r="H101" s="2" t="str">
-        <f>IF(G101&lt;1949,"ja", IF(G101="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I101" s="2" t="str">
-        <f>IF(C101&lt;=1859,"T1",IF(C101&lt;=1879,"T2",IF(C101&lt;=1899,"T3",IF(C101&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J101" s="2">
         <v>16808</v>
       </c>
       <c r="K101" s="2" t="str">
-        <f>IF(J101="","",IF(J101="please add","",IF(J101&lt;=10000,"too short",IF(J101&lt;=50000,"short",IF(J101&lt;=100000,"medium",IF(J101&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>short</v>
       </c>
       <c r="L101" s="4" t="s">
@@ -5945,18 +6297,18 @@
         <v>1896</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f>IF(G102&lt;1949,"ja", IF(G102="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I102" s="2" t="str">
-        <f>IF(C102&lt;=1859,"T1",IF(C102&lt;=1879,"T2",IF(C102&lt;=1899,"T3",IF(C102&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T2</v>
       </c>
       <c r="J102" s="2">
         <v>17730</v>
       </c>
       <c r="K102" s="2" t="str">
-        <f>IF(J102="","",IF(J102="please add","",IF(J102&lt;=10000,"too short",IF(J102&lt;=50000,"short",IF(J102&lt;=100000,"medium",IF(J102&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>short</v>
       </c>
       <c r="L102" s="4" t="s">
@@ -5989,18 +6341,18 @@
         <v>1920</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f>IF(G103&lt;1949,"ja", IF(G103="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I103" s="2" t="str">
-        <f>IF(C103&lt;=1859,"T1",IF(C103&lt;=1879,"T2",IF(C103&lt;=1899,"T3",IF(C103&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J103" s="2">
         <v>65747</v>
       </c>
       <c r="K103" s="2" t="str">
-        <f>IF(J103="","",IF(J103="please add","",IF(J103&lt;=10000,"too short",IF(J103&lt;=50000,"short",IF(J103&lt;=100000,"medium",IF(J103&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>medium</v>
       </c>
       <c r="L103" s="4" t="s">
@@ -6033,18 +6385,18 @@
         <v>1941</v>
       </c>
       <c r="H104" s="2" t="str">
-        <f>IF(G104&lt;1949,"ja", IF(G104="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I104" s="2" t="str">
-        <f>IF(C104&lt;=1859,"T1",IF(C104&lt;=1879,"T2",IF(C104&lt;=1899,"T3",IF(C104&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J104" s="5">
         <v>77211</v>
       </c>
       <c r="K104" s="2" t="str">
-        <f>IF(J104="","",IF(J104="please add","",IF(J104&lt;=10000,"too short",IF(J104&lt;=50000,"short",IF(J104&lt;=100000,"medium",IF(J104&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>medium</v>
       </c>
       <c r="L104" s="4" t="s">
@@ -6077,18 +6429,18 @@
         <v>1941</v>
       </c>
       <c r="H105" s="2" t="str">
-        <f>IF(G105&lt;1949,"ja", IF(G105="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I105" s="2" t="str">
-        <f>IF(C105&lt;=1859,"T1",IF(C105&lt;=1879,"T2",IF(C105&lt;=1899,"T3",IF(C105&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J105" s="5">
         <v>81053</v>
       </c>
       <c r="K105" s="2" t="str">
-        <f>IF(J105="","",IF(J105="please add","",IF(J105&lt;=10000,"too short",IF(J105&lt;=50000,"short",IF(J105&lt;=100000,"medium",IF(J105&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>medium</v>
       </c>
       <c r="L105" s="4" t="s">
@@ -6121,18 +6473,18 @@
         <v>1941</v>
       </c>
       <c r="H106" s="2" t="str">
-        <f>IF(G106&lt;1949,"ja", IF(G106="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I106" s="2" t="str">
-        <f>IF(C106&lt;=1859,"T1",IF(C106&lt;=1879,"T2",IF(C106&lt;=1899,"T3",IF(C106&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J106" s="5">
         <v>76484</v>
       </c>
       <c r="K106" s="2" t="str">
-        <f>IF(J106="","",IF(J106="please add","",IF(J106&lt;=10000,"too short",IF(J106&lt;=50000,"short",IF(J106&lt;=100000,"medium",IF(J106&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>medium</v>
       </c>
       <c r="L106" s="4" t="s">
@@ -6165,18 +6517,18 @@
         <v>1918</v>
       </c>
       <c r="H107" s="2" t="str">
-        <f>IF(G107&lt;1949,"ja", IF(G107="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I107" s="2" t="str">
-        <f>IF(C107&lt;=1859,"T1",IF(C107&lt;=1879,"T2",IF(C107&lt;=1899,"T3",IF(C107&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J107" s="2">
         <v>79195</v>
       </c>
       <c r="K107" s="2" t="str">
-        <f>IF(J107="","",IF(J107="please add","",IF(J107&lt;=10000,"too short",IF(J107&lt;=50000,"short",IF(J107&lt;=100000,"medium",IF(J107&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>medium</v>
       </c>
       <c r="L107" s="4" t="s">
@@ -6212,18 +6564,18 @@
         <v>1918</v>
       </c>
       <c r="H108" s="2" t="str">
-        <f>IF(G108&lt;1949,"ja", IF(G108="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I108" s="2" t="str">
-        <f>IF(C108&lt;=1859,"T1",IF(C108&lt;=1879,"T2",IF(C108&lt;=1899,"T3",IF(C108&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J108" s="2">
         <v>36458</v>
       </c>
       <c r="K108" s="2" t="str">
-        <f>IF(J108="","",IF(J108="please add","",IF(J108&lt;=10000,"too short",IF(J108&lt;=50000,"short",IF(J108&lt;=100000,"medium",IF(J108&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>short</v>
       </c>
       <c r="L108" s="4" t="s">
@@ -6256,18 +6608,18 @@
         <v>1918</v>
       </c>
       <c r="H109" s="2" t="str">
-        <f>IF(G109&lt;1949,"ja", IF(G109="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I109" s="2" t="str">
-        <f>IF(C109&lt;=1859,"T1",IF(C109&lt;=1879,"T2",IF(C109&lt;=1899,"T3",IF(C109&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T4</v>
       </c>
       <c r="J109" s="2">
         <v>7510</v>
       </c>
       <c r="K109" s="2" t="str">
-        <f>IF(J109="","",IF(J109="please add","",IF(J109&lt;=10000,"too short",IF(J109&lt;=50000,"short",IF(J109&lt;=100000,"medium",IF(J109&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>too short</v>
       </c>
       <c r="L109" s="4" t="s">
@@ -6300,18 +6652,18 @@
         <v>1885</v>
       </c>
       <c r="H110" s="2" t="str">
-        <f>IF(G110&lt;1949,"ja", IF(G110="please add","","nein"))</f>
+        <f t="shared" si="9"/>
         <v>ja</v>
       </c>
       <c r="I110" s="2" t="str">
-        <f>IF(C110&lt;=1859,"T1",IF(C110&lt;=1879,"T2",IF(C110&lt;=1899,"T3",IF(C110&lt;=1920,"T4","beyond"))))</f>
+        <f t="shared" si="10"/>
         <v>T2</v>
       </c>
       <c r="J110" s="2">
         <v>24356</v>
       </c>
       <c r="K110" s="2" t="str">
-        <f>IF(J110="","",IF(J110="please add","",IF(J110&lt;=10000,"too short",IF(J110&lt;=50000,"short",IF(J110&lt;=100000,"medium",IF(J110&gt;100000,"long"))))))</f>
+        <f t="shared" si="11"/>
         <v>short</v>
       </c>
       <c r="L110" s="4" t="s">
@@ -6565,114 +6917,129 @@
     <sortCondition ref="A2:A110"/>
     <sortCondition ref="B2:B110"/>
   </sortState>
-  <conditionalFormatting sqref="A107:G110 A103:G103 A102:F102 A105:G105 A104:E104 A106:E106 M71:N71 M59:N59 M62:N63 M52:N54 M48:N49 M30:N30 M38:N45 M20:N27 L60:N61 L46:N47 L3:N19 L107:N107 L55:N58 L50:N51 L28:N29 L64:N70 L72:N98 A1:N2 A111:N1048576 L103:N103 H3:K110 A3:G101 L31:N37 L2:L110 O29">
-    <cfRule type="containsText" dxfId="21" priority="36" operator="containsText" text="please add">
+  <conditionalFormatting sqref="A107:G110 A103:G103 A102:F102 A105:G105 A104:E104 A106:E106 M71:N71 M59:N59 M62:N63 M52:N54 M48:N49 M30:N30 M38:N45 M20:N27 L60:N61 L46:N47 L107:N107 L55:N58 L50:N51 L28:N29 L64:N70 L72:N98 A1:J2 A111:J1048576 L103:N103 H3:J110 A3:G101 L31:N37 L2:L110 O29 L111:N1048576 L1:N19">
+    <cfRule type="containsText" dxfId="49" priority="40" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="48" priority="39" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L187">
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H110">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="nein">
+    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="nein">
       <formula>NOT(ISERROR(SEARCH("nein",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I280">
-    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="beyond">
+    <cfRule type="containsText" dxfId="46" priority="36" operator="containsText" text="beyond">
       <formula>NOT(ISERROR(SEARCH("beyond",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L187">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C187">
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="greaterThan">
       <formula>1920</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104 F106:G106 N102 N108:N110 L99:N101 L104:N106">
-    <cfRule type="containsText" dxfId="13" priority="28" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="41" priority="30" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",G102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:M110 M102">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",M102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O86">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",O86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="please add">
+      <formula>NOT(ISERROR(SEARCH("please add",K83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="nein">
+      <formula>NOT(ISERROR(SEARCH("nein",K83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="too short">
+      <formula>NOT(ISERROR(SEARCH("too short",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
